--- a/LineageW/天堂w_練功.xlsx
+++ b/LineageW/天堂w_練功.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="41" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="61" sheetId="13" r:id="rId13"/>
     <sheet name="62" sheetId="14" r:id="rId14"/>
     <sheet name="63" sheetId="15" r:id="rId15"/>
+    <sheet name="66" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="135">
   <si>
     <t>等級</t>
   </si>
@@ -475,6 +476,74 @@
   </si>
   <si>
     <t>附魔強化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍之谷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鏡森</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>空虛1F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>古樹3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>古樹2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>古樹1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖誕地監</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默洞口</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>被遺棄者之地</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏伯特2F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>遺忘寺院</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰原雪壁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1077,11 +1146,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3373,8 +3445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3549,6 +3621,829 @@
         <v>116</v>
       </c>
       <c r="P5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>6.615E-2</v>
+      </c>
+      <c r="D2">
+        <v>41977</v>
+      </c>
+      <c r="F2">
+        <v>-700</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>7.7039999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>48635</v>
+      </c>
+      <c r="F3">
+        <v>-700</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>5.6309999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>128541</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>5.5109999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>109874</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8">
+        <v>8.4510000000000002E-2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>8.5779999999999995E-2</v>
+      </c>
+      <c r="D10">
+        <v>154053</v>
+      </c>
+      <c r="F10">
+        <v>-500</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>8.0869999999999997E-2</v>
+      </c>
+      <c r="D11">
+        <v>150041</v>
+      </c>
+      <c r="F11">
+        <v>-500</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12">
+        <v>8.2379999999999995E-2</v>
+      </c>
+      <c r="D12">
+        <v>151471</v>
+      </c>
+      <c r="F12">
+        <v>-500</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14">
+        <v>7.8049999999999994E-2</v>
+      </c>
+      <c r="D14">
+        <v>132832</v>
+      </c>
+      <c r="F14">
+        <v>-500</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16">
+        <v>-500</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18">
+        <v>0.58321000000000001</v>
+      </c>
+      <c r="D18">
+        <v>381871</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>9.1209999999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>201621</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22">
+        <v>1.0928899999999999</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23">
+        <v>1.0887899999999999</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25">
+        <v>9.2289999999999997E-2</v>
+      </c>
+      <c r="D25">
+        <v>22837</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27">
+        <v>6.8879999999999997E-2</v>
+      </c>
+      <c r="D27">
+        <v>155948</v>
+      </c>
+      <c r="F27">
+        <v>-500</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29">
+        <v>0.10106999999999999</v>
+      </c>
+      <c r="D29">
+        <v>43145</v>
+      </c>
+      <c r="F29">
+        <v>-500</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30">
+        <v>0.10700999999999999</v>
+      </c>
+      <c r="D30">
+        <v>50756</v>
+      </c>
+      <c r="F30">
+        <v>-500</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32">
+        <v>0.23080999999999999</v>
+      </c>
+      <c r="D32">
+        <v>34234</v>
+      </c>
+      <c r="F32">
+        <v>-700</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33">
+        <v>0.20485999999999999</v>
+      </c>
+      <c r="D33">
+        <v>29040</v>
+      </c>
+      <c r="F33">
+        <v>-700</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P33" t="s">
         <v>25</v>
       </c>
     </row>

--- a/LineageW/天堂w_練功.xlsx
+++ b/LineageW/天堂w_練功.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="144">
   <si>
     <t>等級</t>
   </si>
@@ -556,6 +556,30 @@
   </si>
   <si>
     <t>夢島(風)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>光與影森林</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩倍夢島(風)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩倍夢島(水)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢之塔5F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3644,10 +3668,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC42"/>
+  <dimension ref="A1:XFC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3666,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -4061,7 +4085,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>66</v>
       </c>
@@ -4108,7 +4132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>66</v>
       </c>
@@ -4140,18 +4164,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C22">
-        <v>1.0928899999999999</v>
+        <v>9.0810000000000002E-2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>204999</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4174,31 +4198,19 @@
       <c r="L22" t="s">
         <v>25</v>
       </c>
-      <c r="M22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C23">
-        <v>1.0887899999999999</v>
+        <v>8.8539999999999994E-2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>202298</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4221,75 +4233,16 @@
       <c r="L23" t="s">
         <v>25</v>
       </c>
-      <c r="M23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="2">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24">
-        <v>0.94015000000000004</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1</v>
-      </c>
-      <c r="P24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C25">
-        <v>0.94008000000000003</v>
+        <v>1.0928899999999999</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4324,22 +4277,72 @@
       <c r="O25" s="2">
         <v>1</v>
       </c>
-      <c r="P25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26">
+        <v>1.0887899999999999</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C27">
-        <v>9.2289999999999997E-2</v>
+        <v>0.94015000000000004</v>
       </c>
       <c r="D27">
-        <v>22837</v>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -4350,28 +4353,90 @@
       <c r="I27" t="s">
         <v>25</v>
       </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
       <c r="K27" t="s">
         <v>25</v>
       </c>
       <c r="L27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28">
+        <v>0.94008000000000003</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C29">
-        <v>6.8879999999999997E-2</v>
+        <v>1.0660099999999999</v>
       </c>
       <c r="D29">
-        <v>155948</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s">
         <v>25</v>
@@ -4391,25 +4456,81 @@
       <c r="L29" t="s">
         <v>25</v>
       </c>
-      <c r="P29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <v>1.10897</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C31">
-        <v>0.10106999999999999</v>
+        <v>1.15947</v>
       </c>
       <c r="D31">
-        <v>43145</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>25</v>
@@ -4429,84 +4550,46 @@
       <c r="L31" t="s">
         <v>25</v>
       </c>
-      <c r="P31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32">
-        <v>0.10700999999999999</v>
-      </c>
-      <c r="D32">
-        <v>50756</v>
-      </c>
-      <c r="F32">
-        <v>-500</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
-      <c r="P32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34">
-        <v>0.23080999999999999</v>
-      </c>
-      <c r="D34">
-        <v>34234</v>
-      </c>
-      <c r="F34">
-        <v>-700</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0.1</v>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33">
+        <v>9.2289999999999997E-2</v>
+      </c>
+      <c r="D33">
+        <v>22837</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
@@ -4514,16 +4597,16 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35">
-        <v>0.20485999999999999</v>
+        <v>6.8879999999999997E-2</v>
       </c>
       <c r="D35">
-        <v>29040</v>
+        <v>155948</v>
       </c>
       <c r="F35">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
@@ -4534,1093 +4617,72 @@
       <c r="I35" t="s">
         <v>25</v>
       </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
       <c r="K35" t="s">
         <v>25</v>
       </c>
       <c r="L35" t="s">
         <v>25</v>
       </c>
-      <c r="M35" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>66</v>
       </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36">
-        <v>0.21135000000000001</v>
-      </c>
-      <c r="D36">
-        <v>29062</v>
-      </c>
-      <c r="F36">
-        <v>-700</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
-      <c r="O37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AU37" s="2"/>
-      <c r="BK37" s="2"/>
-      <c r="CA37" s="2"/>
-      <c r="CQ37" s="2"/>
-      <c r="DG37" s="2"/>
-      <c r="DW37" s="2"/>
-      <c r="EM37" s="2"/>
-      <c r="FC37" s="2"/>
-      <c r="FS37" s="2"/>
-      <c r="GI37" s="2"/>
-      <c r="GY37" s="2"/>
-      <c r="HO37" s="2"/>
-      <c r="IE37" s="2"/>
-      <c r="IU37" s="2"/>
-      <c r="JK37" s="2"/>
-      <c r="KA37" s="2"/>
-      <c r="KQ37" s="2"/>
-      <c r="LG37" s="2"/>
-      <c r="LW37" s="2"/>
-      <c r="MM37" s="2"/>
-      <c r="NC37" s="2"/>
-      <c r="NS37" s="2"/>
-      <c r="OI37" s="2"/>
-      <c r="OY37" s="2"/>
-      <c r="PO37" s="2"/>
-      <c r="QE37" s="2"/>
-      <c r="QU37" s="2"/>
-      <c r="RK37" s="2"/>
-      <c r="SA37" s="2"/>
-      <c r="SQ37" s="2"/>
-      <c r="TG37" s="2"/>
-      <c r="TW37" s="2"/>
-      <c r="UM37" s="2"/>
-      <c r="VC37" s="2"/>
-      <c r="VS37" s="2"/>
-      <c r="WI37" s="2"/>
-      <c r="WY37" s="2"/>
-      <c r="XO37" s="2"/>
-      <c r="YE37" s="2"/>
-      <c r="YU37" s="2"/>
-      <c r="ZK37" s="2"/>
-      <c r="AAA37" s="2"/>
-      <c r="AAQ37" s="2"/>
-      <c r="ABG37" s="2"/>
-      <c r="ABW37" s="2"/>
-      <c r="ACM37" s="2"/>
-      <c r="ADC37" s="2"/>
-      <c r="ADS37" s="2"/>
-      <c r="AEI37" s="2"/>
-      <c r="AEY37" s="2"/>
-      <c r="AFO37" s="2"/>
-      <c r="AGE37" s="2"/>
-      <c r="AGU37" s="2"/>
-      <c r="AHK37" s="2"/>
-      <c r="AIA37" s="2"/>
-      <c r="AIQ37" s="2"/>
-      <c r="AJG37" s="2"/>
-      <c r="AJW37" s="2"/>
-      <c r="AKM37" s="2"/>
-      <c r="ALC37" s="2"/>
-      <c r="ALS37" s="2"/>
-      <c r="AMI37" s="2"/>
-      <c r="AMY37" s="2"/>
-      <c r="ANO37" s="2"/>
-      <c r="AOE37" s="2"/>
-      <c r="AOU37" s="2"/>
-      <c r="APK37" s="2"/>
-      <c r="AQA37" s="2"/>
-      <c r="AQQ37" s="2"/>
-      <c r="ARG37" s="2"/>
-      <c r="ARW37" s="2"/>
-      <c r="ASM37" s="2"/>
-      <c r="ATC37" s="2"/>
-      <c r="ATS37" s="2"/>
-      <c r="AUI37" s="2"/>
-      <c r="AUY37" s="2"/>
-      <c r="AVO37" s="2"/>
-      <c r="AWE37" s="2"/>
-      <c r="AWU37" s="2"/>
-      <c r="AXK37" s="2"/>
-      <c r="AYA37" s="2"/>
-      <c r="AYQ37" s="2"/>
-      <c r="AZG37" s="2"/>
-      <c r="AZW37" s="2"/>
-      <c r="BAM37" s="2"/>
-      <c r="BBC37" s="2"/>
-      <c r="BBS37" s="2"/>
-      <c r="BCI37" s="2"/>
-      <c r="BCY37" s="2"/>
-      <c r="BDO37" s="2"/>
-      <c r="BEE37" s="2"/>
-      <c r="BEU37" s="2"/>
-      <c r="BFK37" s="2"/>
-      <c r="BGA37" s="2"/>
-      <c r="BGQ37" s="2"/>
-      <c r="BHG37" s="2"/>
-      <c r="BHW37" s="2"/>
-      <c r="BIM37" s="2"/>
-      <c r="BJC37" s="2"/>
-      <c r="BJS37" s="2"/>
-      <c r="BKI37" s="2"/>
-      <c r="BKY37" s="2"/>
-      <c r="BLO37" s="2"/>
-      <c r="BME37" s="2"/>
-      <c r="BMU37" s="2"/>
-      <c r="BNK37" s="2"/>
-      <c r="BOA37" s="2"/>
-      <c r="BOQ37" s="2"/>
-      <c r="BPG37" s="2"/>
-      <c r="BPW37" s="2"/>
-      <c r="BQM37" s="2"/>
-      <c r="BRC37" s="2"/>
-      <c r="BRS37" s="2"/>
-      <c r="BSI37" s="2"/>
-      <c r="BSY37" s="2"/>
-      <c r="BTO37" s="2"/>
-      <c r="BUE37" s="2"/>
-      <c r="BUU37" s="2"/>
-      <c r="BVK37" s="2"/>
-      <c r="BWA37" s="2"/>
-      <c r="BWQ37" s="2"/>
-      <c r="BXG37" s="2"/>
-      <c r="BXW37" s="2"/>
-      <c r="BYM37" s="2"/>
-      <c r="BZC37" s="2"/>
-      <c r="BZS37" s="2"/>
-      <c r="CAI37" s="2"/>
-      <c r="CAY37" s="2"/>
-      <c r="CBO37" s="2"/>
-      <c r="CCE37" s="2"/>
-      <c r="CCU37" s="2"/>
-      <c r="CDK37" s="2"/>
-      <c r="CEA37" s="2"/>
-      <c r="CEQ37" s="2"/>
-      <c r="CFG37" s="2"/>
-      <c r="CFW37" s="2"/>
-      <c r="CGM37" s="2"/>
-      <c r="CHC37" s="2"/>
-      <c r="CHS37" s="2"/>
-      <c r="CII37" s="2"/>
-      <c r="CIY37" s="2"/>
-      <c r="CJO37" s="2"/>
-      <c r="CKE37" s="2"/>
-      <c r="CKU37" s="2"/>
-      <c r="CLK37" s="2"/>
-      <c r="CMA37" s="2"/>
-      <c r="CMQ37" s="2"/>
-      <c r="CNG37" s="2"/>
-      <c r="CNW37" s="2"/>
-      <c r="COM37" s="2"/>
-      <c r="CPC37" s="2"/>
-      <c r="CPS37" s="2"/>
-      <c r="CQI37" s="2"/>
-      <c r="CQY37" s="2"/>
-      <c r="CRO37" s="2"/>
-      <c r="CSE37" s="2"/>
-      <c r="CSU37" s="2"/>
-      <c r="CTK37" s="2"/>
-      <c r="CUA37" s="2"/>
-      <c r="CUQ37" s="2"/>
-      <c r="CVG37" s="2"/>
-      <c r="CVW37" s="2"/>
-      <c r="CWM37" s="2"/>
-      <c r="CXC37" s="2"/>
-      <c r="CXS37" s="2"/>
-      <c r="CYI37" s="2"/>
-      <c r="CYY37" s="2"/>
-      <c r="CZO37" s="2"/>
-      <c r="DAE37" s="2"/>
-      <c r="DAU37" s="2"/>
-      <c r="DBK37" s="2"/>
-      <c r="DCA37" s="2"/>
-      <c r="DCQ37" s="2"/>
-      <c r="DDG37" s="2"/>
-      <c r="DDW37" s="2"/>
-      <c r="DEM37" s="2"/>
-      <c r="DFC37" s="2"/>
-      <c r="DFS37" s="2"/>
-      <c r="DGI37" s="2"/>
-      <c r="DGY37" s="2"/>
-      <c r="DHO37" s="2"/>
-      <c r="DIE37" s="2"/>
-      <c r="DIU37" s="2"/>
-      <c r="DJK37" s="2"/>
-      <c r="DKA37" s="2"/>
-      <c r="DKQ37" s="2"/>
-      <c r="DLG37" s="2"/>
-      <c r="DLW37" s="2"/>
-      <c r="DMM37" s="2"/>
-      <c r="DNC37" s="2"/>
-      <c r="DNS37" s="2"/>
-      <c r="DOI37" s="2"/>
-      <c r="DOY37" s="2"/>
-      <c r="DPO37" s="2"/>
-      <c r="DQE37" s="2"/>
-      <c r="DQU37" s="2"/>
-      <c r="DRK37" s="2"/>
-      <c r="DSA37" s="2"/>
-      <c r="DSQ37" s="2"/>
-      <c r="DTG37" s="2"/>
-      <c r="DTW37" s="2"/>
-      <c r="DUM37" s="2"/>
-      <c r="DVC37" s="2"/>
-      <c r="DVS37" s="2"/>
-      <c r="DWI37" s="2"/>
-      <c r="DWY37" s="2"/>
-      <c r="DXO37" s="2"/>
-      <c r="DYE37" s="2"/>
-      <c r="DYU37" s="2"/>
-      <c r="DZK37" s="2"/>
-      <c r="EAA37" s="2"/>
-      <c r="EAQ37" s="2"/>
-      <c r="EBG37" s="2"/>
-      <c r="EBW37" s="2"/>
-      <c r="ECM37" s="2"/>
-      <c r="EDC37" s="2"/>
-      <c r="EDS37" s="2"/>
-      <c r="EEI37" s="2"/>
-      <c r="EEY37" s="2"/>
-      <c r="EFO37" s="2"/>
-      <c r="EGE37" s="2"/>
-      <c r="EGU37" s="2"/>
-      <c r="EHK37" s="2"/>
-      <c r="EIA37" s="2"/>
-      <c r="EIQ37" s="2"/>
-      <c r="EJG37" s="2"/>
-      <c r="EJW37" s="2"/>
-      <c r="EKM37" s="2"/>
-      <c r="ELC37" s="2"/>
-      <c r="ELS37" s="2"/>
-      <c r="EMI37" s="2"/>
-      <c r="EMY37" s="2"/>
-      <c r="ENO37" s="2"/>
-      <c r="EOE37" s="2"/>
-      <c r="EOU37" s="2"/>
-      <c r="EPK37" s="2"/>
-      <c r="EQA37" s="2"/>
-      <c r="EQQ37" s="2"/>
-      <c r="ERG37" s="2"/>
-      <c r="ERW37" s="2"/>
-      <c r="ESM37" s="2"/>
-      <c r="ETC37" s="2"/>
-      <c r="ETS37" s="2"/>
-      <c r="EUI37" s="2"/>
-      <c r="EUY37" s="2"/>
-      <c r="EVO37" s="2"/>
-      <c r="EWE37" s="2"/>
-      <c r="EWU37" s="2"/>
-      <c r="EXK37" s="2"/>
-      <c r="EYA37" s="2"/>
-      <c r="EYQ37" s="2"/>
-      <c r="EZG37" s="2"/>
-      <c r="EZW37" s="2"/>
-      <c r="FAM37" s="2"/>
-      <c r="FBC37" s="2"/>
-      <c r="FBS37" s="2"/>
-      <c r="FCI37" s="2"/>
-      <c r="FCY37" s="2"/>
-      <c r="FDO37" s="2"/>
-      <c r="FEE37" s="2"/>
-      <c r="FEU37" s="2"/>
-      <c r="FFK37" s="2"/>
-      <c r="FGA37" s="2"/>
-      <c r="FGQ37" s="2"/>
-      <c r="FHG37" s="2"/>
-      <c r="FHW37" s="2"/>
-      <c r="FIM37" s="2"/>
-      <c r="FJC37" s="2"/>
-      <c r="FJS37" s="2"/>
-      <c r="FKI37" s="2"/>
-      <c r="FKY37" s="2"/>
-      <c r="FLO37" s="2"/>
-      <c r="FME37" s="2"/>
-      <c r="FMU37" s="2"/>
-      <c r="FNK37" s="2"/>
-      <c r="FOA37" s="2"/>
-      <c r="FOQ37" s="2"/>
-      <c r="FPG37" s="2"/>
-      <c r="FPW37" s="2"/>
-      <c r="FQM37" s="2"/>
-      <c r="FRC37" s="2"/>
-      <c r="FRS37" s="2"/>
-      <c r="FSI37" s="2"/>
-      <c r="FSY37" s="2"/>
-      <c r="FTO37" s="2"/>
-      <c r="FUE37" s="2"/>
-      <c r="FUU37" s="2"/>
-      <c r="FVK37" s="2"/>
-      <c r="FWA37" s="2"/>
-      <c r="FWQ37" s="2"/>
-      <c r="FXG37" s="2"/>
-      <c r="FXW37" s="2"/>
-      <c r="FYM37" s="2"/>
-      <c r="FZC37" s="2"/>
-      <c r="FZS37" s="2"/>
-      <c r="GAI37" s="2"/>
-      <c r="GAY37" s="2"/>
-      <c r="GBO37" s="2"/>
-      <c r="GCE37" s="2"/>
-      <c r="GCU37" s="2"/>
-      <c r="GDK37" s="2"/>
-      <c r="GEA37" s="2"/>
-      <c r="GEQ37" s="2"/>
-      <c r="GFG37" s="2"/>
-      <c r="GFW37" s="2"/>
-      <c r="GGM37" s="2"/>
-      <c r="GHC37" s="2"/>
-      <c r="GHS37" s="2"/>
-      <c r="GII37" s="2"/>
-      <c r="GIY37" s="2"/>
-      <c r="GJO37" s="2"/>
-      <c r="GKE37" s="2"/>
-      <c r="GKU37" s="2"/>
-      <c r="GLK37" s="2"/>
-      <c r="GMA37" s="2"/>
-      <c r="GMQ37" s="2"/>
-      <c r="GNG37" s="2"/>
-      <c r="GNW37" s="2"/>
-      <c r="GOM37" s="2"/>
-      <c r="GPC37" s="2"/>
-      <c r="GPS37" s="2"/>
-      <c r="GQI37" s="2"/>
-      <c r="GQY37" s="2"/>
-      <c r="GRO37" s="2"/>
-      <c r="GSE37" s="2"/>
-      <c r="GSU37" s="2"/>
-      <c r="GTK37" s="2"/>
-      <c r="GUA37" s="2"/>
-      <c r="GUQ37" s="2"/>
-      <c r="GVG37" s="2"/>
-      <c r="GVW37" s="2"/>
-      <c r="GWM37" s="2"/>
-      <c r="GXC37" s="2"/>
-      <c r="GXS37" s="2"/>
-      <c r="GYI37" s="2"/>
-      <c r="GYY37" s="2"/>
-      <c r="GZO37" s="2"/>
-      <c r="HAE37" s="2"/>
-      <c r="HAU37" s="2"/>
-      <c r="HBK37" s="2"/>
-      <c r="HCA37" s="2"/>
-      <c r="HCQ37" s="2"/>
-      <c r="HDG37" s="2"/>
-      <c r="HDW37" s="2"/>
-      <c r="HEM37" s="2"/>
-      <c r="HFC37" s="2"/>
-      <c r="HFS37" s="2"/>
-      <c r="HGI37" s="2"/>
-      <c r="HGY37" s="2"/>
-      <c r="HHO37" s="2"/>
-      <c r="HIE37" s="2"/>
-      <c r="HIU37" s="2"/>
-      <c r="HJK37" s="2"/>
-      <c r="HKA37" s="2"/>
-      <c r="HKQ37" s="2"/>
-      <c r="HLG37" s="2"/>
-      <c r="HLW37" s="2"/>
-      <c r="HMM37" s="2"/>
-      <c r="HNC37" s="2"/>
-      <c r="HNS37" s="2"/>
-      <c r="HOI37" s="2"/>
-      <c r="HOY37" s="2"/>
-      <c r="HPO37" s="2"/>
-      <c r="HQE37" s="2"/>
-      <c r="HQU37" s="2"/>
-      <c r="HRK37" s="2"/>
-      <c r="HSA37" s="2"/>
-      <c r="HSQ37" s="2"/>
-      <c r="HTG37" s="2"/>
-      <c r="HTW37" s="2"/>
-      <c r="HUM37" s="2"/>
-      <c r="HVC37" s="2"/>
-      <c r="HVS37" s="2"/>
-      <c r="HWI37" s="2"/>
-      <c r="HWY37" s="2"/>
-      <c r="HXO37" s="2"/>
-      <c r="HYE37" s="2"/>
-      <c r="HYU37" s="2"/>
-      <c r="HZK37" s="2"/>
-      <c r="IAA37" s="2"/>
-      <c r="IAQ37" s="2"/>
-      <c r="IBG37" s="2"/>
-      <c r="IBW37" s="2"/>
-      <c r="ICM37" s="2"/>
-      <c r="IDC37" s="2"/>
-      <c r="IDS37" s="2"/>
-      <c r="IEI37" s="2"/>
-      <c r="IEY37" s="2"/>
-      <c r="IFO37" s="2"/>
-      <c r="IGE37" s="2"/>
-      <c r="IGU37" s="2"/>
-      <c r="IHK37" s="2"/>
-      <c r="IIA37" s="2"/>
-      <c r="IIQ37" s="2"/>
-      <c r="IJG37" s="2"/>
-      <c r="IJW37" s="2"/>
-      <c r="IKM37" s="2"/>
-      <c r="ILC37" s="2"/>
-      <c r="ILS37" s="2"/>
-      <c r="IMI37" s="2"/>
-      <c r="IMY37" s="2"/>
-      <c r="INO37" s="2"/>
-      <c r="IOE37" s="2"/>
-      <c r="IOU37" s="2"/>
-      <c r="IPK37" s="2"/>
-      <c r="IQA37" s="2"/>
-      <c r="IQQ37" s="2"/>
-      <c r="IRG37" s="2"/>
-      <c r="IRW37" s="2"/>
-      <c r="ISM37" s="2"/>
-      <c r="ITC37" s="2"/>
-      <c r="ITS37" s="2"/>
-      <c r="IUI37" s="2"/>
-      <c r="IUY37" s="2"/>
-      <c r="IVO37" s="2"/>
-      <c r="IWE37" s="2"/>
-      <c r="IWU37" s="2"/>
-      <c r="IXK37" s="2"/>
-      <c r="IYA37" s="2"/>
-      <c r="IYQ37" s="2"/>
-      <c r="IZG37" s="2"/>
-      <c r="IZW37" s="2"/>
-      <c r="JAM37" s="2"/>
-      <c r="JBC37" s="2"/>
-      <c r="JBS37" s="2"/>
-      <c r="JCI37" s="2"/>
-      <c r="JCY37" s="2"/>
-      <c r="JDO37" s="2"/>
-      <c r="JEE37" s="2"/>
-      <c r="JEU37" s="2"/>
-      <c r="JFK37" s="2"/>
-      <c r="JGA37" s="2"/>
-      <c r="JGQ37" s="2"/>
-      <c r="JHG37" s="2"/>
-      <c r="JHW37" s="2"/>
-      <c r="JIM37" s="2"/>
-      <c r="JJC37" s="2"/>
-      <c r="JJS37" s="2"/>
-      <c r="JKI37" s="2"/>
-      <c r="JKY37" s="2"/>
-      <c r="JLO37" s="2"/>
-      <c r="JME37" s="2"/>
-      <c r="JMU37" s="2"/>
-      <c r="JNK37" s="2"/>
-      <c r="JOA37" s="2"/>
-      <c r="JOQ37" s="2"/>
-      <c r="JPG37" s="2"/>
-      <c r="JPW37" s="2"/>
-      <c r="JQM37" s="2"/>
-      <c r="JRC37" s="2"/>
-      <c r="JRS37" s="2"/>
-      <c r="JSI37" s="2"/>
-      <c r="JSY37" s="2"/>
-      <c r="JTO37" s="2"/>
-      <c r="JUE37" s="2"/>
-      <c r="JUU37" s="2"/>
-      <c r="JVK37" s="2"/>
-      <c r="JWA37" s="2"/>
-      <c r="JWQ37" s="2"/>
-      <c r="JXG37" s="2"/>
-      <c r="JXW37" s="2"/>
-      <c r="JYM37" s="2"/>
-      <c r="JZC37" s="2"/>
-      <c r="JZS37" s="2"/>
-      <c r="KAI37" s="2"/>
-      <c r="KAY37" s="2"/>
-      <c r="KBO37" s="2"/>
-      <c r="KCE37" s="2"/>
-      <c r="KCU37" s="2"/>
-      <c r="KDK37" s="2"/>
-      <c r="KEA37" s="2"/>
-      <c r="KEQ37" s="2"/>
-      <c r="KFG37" s="2"/>
-      <c r="KFW37" s="2"/>
-      <c r="KGM37" s="2"/>
-      <c r="KHC37" s="2"/>
-      <c r="KHS37" s="2"/>
-      <c r="KII37" s="2"/>
-      <c r="KIY37" s="2"/>
-      <c r="KJO37" s="2"/>
-      <c r="KKE37" s="2"/>
-      <c r="KKU37" s="2"/>
-      <c r="KLK37" s="2"/>
-      <c r="KMA37" s="2"/>
-      <c r="KMQ37" s="2"/>
-      <c r="KNG37" s="2"/>
-      <c r="KNW37" s="2"/>
-      <c r="KOM37" s="2"/>
-      <c r="KPC37" s="2"/>
-      <c r="KPS37" s="2"/>
-      <c r="KQI37" s="2"/>
-      <c r="KQY37" s="2"/>
-      <c r="KRO37" s="2"/>
-      <c r="KSE37" s="2"/>
-      <c r="KSU37" s="2"/>
-      <c r="KTK37" s="2"/>
-      <c r="KUA37" s="2"/>
-      <c r="KUQ37" s="2"/>
-      <c r="KVG37" s="2"/>
-      <c r="KVW37" s="2"/>
-      <c r="KWM37" s="2"/>
-      <c r="KXC37" s="2"/>
-      <c r="KXS37" s="2"/>
-      <c r="KYI37" s="2"/>
-      <c r="KYY37" s="2"/>
-      <c r="KZO37" s="2"/>
-      <c r="LAE37" s="2"/>
-      <c r="LAU37" s="2"/>
-      <c r="LBK37" s="2"/>
-      <c r="LCA37" s="2"/>
-      <c r="LCQ37" s="2"/>
-      <c r="LDG37" s="2"/>
-      <c r="LDW37" s="2"/>
-      <c r="LEM37" s="2"/>
-      <c r="LFC37" s="2"/>
-      <c r="LFS37" s="2"/>
-      <c r="LGI37" s="2"/>
-      <c r="LGY37" s="2"/>
-      <c r="LHO37" s="2"/>
-      <c r="LIE37" s="2"/>
-      <c r="LIU37" s="2"/>
-      <c r="LJK37" s="2"/>
-      <c r="LKA37" s="2"/>
-      <c r="LKQ37" s="2"/>
-      <c r="LLG37" s="2"/>
-      <c r="LLW37" s="2"/>
-      <c r="LMM37" s="2"/>
-      <c r="LNC37" s="2"/>
-      <c r="LNS37" s="2"/>
-      <c r="LOI37" s="2"/>
-      <c r="LOY37" s="2"/>
-      <c r="LPO37" s="2"/>
-      <c r="LQE37" s="2"/>
-      <c r="LQU37" s="2"/>
-      <c r="LRK37" s="2"/>
-      <c r="LSA37" s="2"/>
-      <c r="LSQ37" s="2"/>
-      <c r="LTG37" s="2"/>
-      <c r="LTW37" s="2"/>
-      <c r="LUM37" s="2"/>
-      <c r="LVC37" s="2"/>
-      <c r="LVS37" s="2"/>
-      <c r="LWI37" s="2"/>
-      <c r="LWY37" s="2"/>
-      <c r="LXO37" s="2"/>
-      <c r="LYE37" s="2"/>
-      <c r="LYU37" s="2"/>
-      <c r="LZK37" s="2"/>
-      <c r="MAA37" s="2"/>
-      <c r="MAQ37" s="2"/>
-      <c r="MBG37" s="2"/>
-      <c r="MBW37" s="2"/>
-      <c r="MCM37" s="2"/>
-      <c r="MDC37" s="2"/>
-      <c r="MDS37" s="2"/>
-      <c r="MEI37" s="2"/>
-      <c r="MEY37" s="2"/>
-      <c r="MFO37" s="2"/>
-      <c r="MGE37" s="2"/>
-      <c r="MGU37" s="2"/>
-      <c r="MHK37" s="2"/>
-      <c r="MIA37" s="2"/>
-      <c r="MIQ37" s="2"/>
-      <c r="MJG37" s="2"/>
-      <c r="MJW37" s="2"/>
-      <c r="MKM37" s="2"/>
-      <c r="MLC37" s="2"/>
-      <c r="MLS37" s="2"/>
-      <c r="MMI37" s="2"/>
-      <c r="MMY37" s="2"/>
-      <c r="MNO37" s="2"/>
-      <c r="MOE37" s="2"/>
-      <c r="MOU37" s="2"/>
-      <c r="MPK37" s="2"/>
-      <c r="MQA37" s="2"/>
-      <c r="MQQ37" s="2"/>
-      <c r="MRG37" s="2"/>
-      <c r="MRW37" s="2"/>
-      <c r="MSM37" s="2"/>
-      <c r="MTC37" s="2"/>
-      <c r="MTS37" s="2"/>
-      <c r="MUI37" s="2"/>
-      <c r="MUY37" s="2"/>
-      <c r="MVO37" s="2"/>
-      <c r="MWE37" s="2"/>
-      <c r="MWU37" s="2"/>
-      <c r="MXK37" s="2"/>
-      <c r="MYA37" s="2"/>
-      <c r="MYQ37" s="2"/>
-      <c r="MZG37" s="2"/>
-      <c r="MZW37" s="2"/>
-      <c r="NAM37" s="2"/>
-      <c r="NBC37" s="2"/>
-      <c r="NBS37" s="2"/>
-      <c r="NCI37" s="2"/>
-      <c r="NCY37" s="2"/>
-      <c r="NDO37" s="2"/>
-      <c r="NEE37" s="2"/>
-      <c r="NEU37" s="2"/>
-      <c r="NFK37" s="2"/>
-      <c r="NGA37" s="2"/>
-      <c r="NGQ37" s="2"/>
-      <c r="NHG37" s="2"/>
-      <c r="NHW37" s="2"/>
-      <c r="NIM37" s="2"/>
-      <c r="NJC37" s="2"/>
-      <c r="NJS37" s="2"/>
-      <c r="NKI37" s="2"/>
-      <c r="NKY37" s="2"/>
-      <c r="NLO37" s="2"/>
-      <c r="NME37" s="2"/>
-      <c r="NMU37" s="2"/>
-      <c r="NNK37" s="2"/>
-      <c r="NOA37" s="2"/>
-      <c r="NOQ37" s="2"/>
-      <c r="NPG37" s="2"/>
-      <c r="NPW37" s="2"/>
-      <c r="NQM37" s="2"/>
-      <c r="NRC37" s="2"/>
-      <c r="NRS37" s="2"/>
-      <c r="NSI37" s="2"/>
-      <c r="NSY37" s="2"/>
-      <c r="NTO37" s="2"/>
-      <c r="NUE37" s="2"/>
-      <c r="NUU37" s="2"/>
-      <c r="NVK37" s="2"/>
-      <c r="NWA37" s="2"/>
-      <c r="NWQ37" s="2"/>
-      <c r="NXG37" s="2"/>
-      <c r="NXW37" s="2"/>
-      <c r="NYM37" s="2"/>
-      <c r="NZC37" s="2"/>
-      <c r="NZS37" s="2"/>
-      <c r="OAI37" s="2"/>
-      <c r="OAY37" s="2"/>
-      <c r="OBO37" s="2"/>
-      <c r="OCE37" s="2"/>
-      <c r="OCU37" s="2"/>
-      <c r="ODK37" s="2"/>
-      <c r="OEA37" s="2"/>
-      <c r="OEQ37" s="2"/>
-      <c r="OFG37" s="2"/>
-      <c r="OFW37" s="2"/>
-      <c r="OGM37" s="2"/>
-      <c r="OHC37" s="2"/>
-      <c r="OHS37" s="2"/>
-      <c r="OII37" s="2"/>
-      <c r="OIY37" s="2"/>
-      <c r="OJO37" s="2"/>
-      <c r="OKE37" s="2"/>
-      <c r="OKU37" s="2"/>
-      <c r="OLK37" s="2"/>
-      <c r="OMA37" s="2"/>
-      <c r="OMQ37" s="2"/>
-      <c r="ONG37" s="2"/>
-      <c r="ONW37" s="2"/>
-      <c r="OOM37" s="2"/>
-      <c r="OPC37" s="2"/>
-      <c r="OPS37" s="2"/>
-      <c r="OQI37" s="2"/>
-      <c r="OQY37" s="2"/>
-      <c r="ORO37" s="2"/>
-      <c r="OSE37" s="2"/>
-      <c r="OSU37" s="2"/>
-      <c r="OTK37" s="2"/>
-      <c r="OUA37" s="2"/>
-      <c r="OUQ37" s="2"/>
-      <c r="OVG37" s="2"/>
-      <c r="OVW37" s="2"/>
-      <c r="OWM37" s="2"/>
-      <c r="OXC37" s="2"/>
-      <c r="OXS37" s="2"/>
-      <c r="OYI37" s="2"/>
-      <c r="OYY37" s="2"/>
-      <c r="OZO37" s="2"/>
-      <c r="PAE37" s="2"/>
-      <c r="PAU37" s="2"/>
-      <c r="PBK37" s="2"/>
-      <c r="PCA37" s="2"/>
-      <c r="PCQ37" s="2"/>
-      <c r="PDG37" s="2"/>
-      <c r="PDW37" s="2"/>
-      <c r="PEM37" s="2"/>
-      <c r="PFC37" s="2"/>
-      <c r="PFS37" s="2"/>
-      <c r="PGI37" s="2"/>
-      <c r="PGY37" s="2"/>
-      <c r="PHO37" s="2"/>
-      <c r="PIE37" s="2"/>
-      <c r="PIU37" s="2"/>
-      <c r="PJK37" s="2"/>
-      <c r="PKA37" s="2"/>
-      <c r="PKQ37" s="2"/>
-      <c r="PLG37" s="2"/>
-      <c r="PLW37" s="2"/>
-      <c r="PMM37" s="2"/>
-      <c r="PNC37" s="2"/>
-      <c r="PNS37" s="2"/>
-      <c r="POI37" s="2"/>
-      <c r="POY37" s="2"/>
-      <c r="PPO37" s="2"/>
-      <c r="PQE37" s="2"/>
-      <c r="PQU37" s="2"/>
-      <c r="PRK37" s="2"/>
-      <c r="PSA37" s="2"/>
-      <c r="PSQ37" s="2"/>
-      <c r="PTG37" s="2"/>
-      <c r="PTW37" s="2"/>
-      <c r="PUM37" s="2"/>
-      <c r="PVC37" s="2"/>
-      <c r="PVS37" s="2"/>
-      <c r="PWI37" s="2"/>
-      <c r="PWY37" s="2"/>
-      <c r="PXO37" s="2"/>
-      <c r="PYE37" s="2"/>
-      <c r="PYU37" s="2"/>
-      <c r="PZK37" s="2"/>
-      <c r="QAA37" s="2"/>
-      <c r="QAQ37" s="2"/>
-      <c r="QBG37" s="2"/>
-      <c r="QBW37" s="2"/>
-      <c r="QCM37" s="2"/>
-      <c r="QDC37" s="2"/>
-      <c r="QDS37" s="2"/>
-      <c r="QEI37" s="2"/>
-      <c r="QEY37" s="2"/>
-      <c r="QFO37" s="2"/>
-      <c r="QGE37" s="2"/>
-      <c r="QGU37" s="2"/>
-      <c r="QHK37" s="2"/>
-      <c r="QIA37" s="2"/>
-      <c r="QIQ37" s="2"/>
-      <c r="QJG37" s="2"/>
-      <c r="QJW37" s="2"/>
-      <c r="QKM37" s="2"/>
-      <c r="QLC37" s="2"/>
-      <c r="QLS37" s="2"/>
-      <c r="QMI37" s="2"/>
-      <c r="QMY37" s="2"/>
-      <c r="QNO37" s="2"/>
-      <c r="QOE37" s="2"/>
-      <c r="QOU37" s="2"/>
-      <c r="QPK37" s="2"/>
-      <c r="QQA37" s="2"/>
-      <c r="QQQ37" s="2"/>
-      <c r="QRG37" s="2"/>
-      <c r="QRW37" s="2"/>
-      <c r="QSM37" s="2"/>
-      <c r="QTC37" s="2"/>
-      <c r="QTS37" s="2"/>
-      <c r="QUI37" s="2"/>
-      <c r="QUY37" s="2"/>
-      <c r="QVO37" s="2"/>
-      <c r="QWE37" s="2"/>
-      <c r="QWU37" s="2"/>
-      <c r="QXK37" s="2"/>
-      <c r="QYA37" s="2"/>
-      <c r="QYQ37" s="2"/>
-      <c r="QZG37" s="2"/>
-      <c r="QZW37" s="2"/>
-      <c r="RAM37" s="2"/>
-      <c r="RBC37" s="2"/>
-      <c r="RBS37" s="2"/>
-      <c r="RCI37" s="2"/>
-      <c r="RCY37" s="2"/>
-      <c r="RDO37" s="2"/>
-      <c r="REE37" s="2"/>
-      <c r="REU37" s="2"/>
-      <c r="RFK37" s="2"/>
-      <c r="RGA37" s="2"/>
-      <c r="RGQ37" s="2"/>
-      <c r="RHG37" s="2"/>
-      <c r="RHW37" s="2"/>
-      <c r="RIM37" s="2"/>
-      <c r="RJC37" s="2"/>
-      <c r="RJS37" s="2"/>
-      <c r="RKI37" s="2"/>
-      <c r="RKY37" s="2"/>
-      <c r="RLO37" s="2"/>
-      <c r="RME37" s="2"/>
-      <c r="RMU37" s="2"/>
-      <c r="RNK37" s="2"/>
-      <c r="ROA37" s="2"/>
-      <c r="ROQ37" s="2"/>
-      <c r="RPG37" s="2"/>
-      <c r="RPW37" s="2"/>
-      <c r="RQM37" s="2"/>
-      <c r="RRC37" s="2"/>
-      <c r="RRS37" s="2"/>
-      <c r="RSI37" s="2"/>
-      <c r="RSY37" s="2"/>
-      <c r="RTO37" s="2"/>
-      <c r="RUE37" s="2"/>
-      <c r="RUU37" s="2"/>
-      <c r="RVK37" s="2"/>
-      <c r="RWA37" s="2"/>
-      <c r="RWQ37" s="2"/>
-      <c r="RXG37" s="2"/>
-      <c r="RXW37" s="2"/>
-      <c r="RYM37" s="2"/>
-      <c r="RZC37" s="2"/>
-      <c r="RZS37" s="2"/>
-      <c r="SAI37" s="2"/>
-      <c r="SAY37" s="2"/>
-      <c r="SBO37" s="2"/>
-      <c r="SCE37" s="2"/>
-      <c r="SCU37" s="2"/>
-      <c r="SDK37" s="2"/>
-      <c r="SEA37" s="2"/>
-      <c r="SEQ37" s="2"/>
-      <c r="SFG37" s="2"/>
-      <c r="SFW37" s="2"/>
-      <c r="SGM37" s="2"/>
-      <c r="SHC37" s="2"/>
-      <c r="SHS37" s="2"/>
-      <c r="SII37" s="2"/>
-      <c r="SIY37" s="2"/>
-      <c r="SJO37" s="2"/>
-      <c r="SKE37" s="2"/>
-      <c r="SKU37" s="2"/>
-      <c r="SLK37" s="2"/>
-      <c r="SMA37" s="2"/>
-      <c r="SMQ37" s="2"/>
-      <c r="SNG37" s="2"/>
-      <c r="SNW37" s="2"/>
-      <c r="SOM37" s="2"/>
-      <c r="SPC37" s="2"/>
-      <c r="SPS37" s="2"/>
-      <c r="SQI37" s="2"/>
-      <c r="SQY37" s="2"/>
-      <c r="SRO37" s="2"/>
-      <c r="SSE37" s="2"/>
-      <c r="SSU37" s="2"/>
-      <c r="STK37" s="2"/>
-      <c r="SUA37" s="2"/>
-      <c r="SUQ37" s="2"/>
-      <c r="SVG37" s="2"/>
-      <c r="SVW37" s="2"/>
-      <c r="SWM37" s="2"/>
-      <c r="SXC37" s="2"/>
-      <c r="SXS37" s="2"/>
-      <c r="SYI37" s="2"/>
-      <c r="SYY37" s="2"/>
-      <c r="SZO37" s="2"/>
-      <c r="TAE37" s="2"/>
-      <c r="TAU37" s="2"/>
-      <c r="TBK37" s="2"/>
-      <c r="TCA37" s="2"/>
-      <c r="TCQ37" s="2"/>
-      <c r="TDG37" s="2"/>
-      <c r="TDW37" s="2"/>
-      <c r="TEM37" s="2"/>
-      <c r="TFC37" s="2"/>
-      <c r="TFS37" s="2"/>
-      <c r="TGI37" s="2"/>
-      <c r="TGY37" s="2"/>
-      <c r="THO37" s="2"/>
-      <c r="TIE37" s="2"/>
-      <c r="TIU37" s="2"/>
-      <c r="TJK37" s="2"/>
-      <c r="TKA37" s="2"/>
-      <c r="TKQ37" s="2"/>
-      <c r="TLG37" s="2"/>
-      <c r="TLW37" s="2"/>
-      <c r="TMM37" s="2"/>
-      <c r="TNC37" s="2"/>
-      <c r="TNS37" s="2"/>
-      <c r="TOI37" s="2"/>
-      <c r="TOY37" s="2"/>
-      <c r="TPO37" s="2"/>
-      <c r="TQE37" s="2"/>
-      <c r="TQU37" s="2"/>
-      <c r="TRK37" s="2"/>
-      <c r="TSA37" s="2"/>
-      <c r="TSQ37" s="2"/>
-      <c r="TTG37" s="2"/>
-      <c r="TTW37" s="2"/>
-      <c r="TUM37" s="2"/>
-      <c r="TVC37" s="2"/>
-      <c r="TVS37" s="2"/>
-      <c r="TWI37" s="2"/>
-      <c r="TWY37" s="2"/>
-      <c r="TXO37" s="2"/>
-      <c r="TYE37" s="2"/>
-      <c r="TYU37" s="2"/>
-      <c r="TZK37" s="2"/>
-      <c r="UAA37" s="2"/>
-      <c r="UAQ37" s="2"/>
-      <c r="UBG37" s="2"/>
-      <c r="UBW37" s="2"/>
-      <c r="UCM37" s="2"/>
-      <c r="UDC37" s="2"/>
-      <c r="UDS37" s="2"/>
-      <c r="UEI37" s="2"/>
-      <c r="UEY37" s="2"/>
-      <c r="UFO37" s="2"/>
-      <c r="UGE37" s="2"/>
-      <c r="UGU37" s="2"/>
-      <c r="UHK37" s="2"/>
-      <c r="UIA37" s="2"/>
-      <c r="UIQ37" s="2"/>
-      <c r="UJG37" s="2"/>
-      <c r="UJW37" s="2"/>
-      <c r="UKM37" s="2"/>
-      <c r="ULC37" s="2"/>
-      <c r="ULS37" s="2"/>
-      <c r="UMI37" s="2"/>
-      <c r="UMY37" s="2"/>
-      <c r="UNO37" s="2"/>
-      <c r="UOE37" s="2"/>
-      <c r="UOU37" s="2"/>
-      <c r="UPK37" s="2"/>
-      <c r="UQA37" s="2"/>
-      <c r="UQQ37" s="2"/>
-      <c r="URG37" s="2"/>
-      <c r="URW37" s="2"/>
-      <c r="USM37" s="2"/>
-      <c r="UTC37" s="2"/>
-      <c r="UTS37" s="2"/>
-      <c r="UUI37" s="2"/>
-      <c r="UUY37" s="2"/>
-      <c r="UVO37" s="2"/>
-      <c r="UWE37" s="2"/>
-      <c r="UWU37" s="2"/>
-      <c r="UXK37" s="2"/>
-      <c r="UYA37" s="2"/>
-      <c r="UYQ37" s="2"/>
-      <c r="UZG37" s="2"/>
-      <c r="UZW37" s="2"/>
-      <c r="VAM37" s="2"/>
-      <c r="VBC37" s="2"/>
-      <c r="VBS37" s="2"/>
-      <c r="VCI37" s="2"/>
-      <c r="VCY37" s="2"/>
-      <c r="VDO37" s="2"/>
-      <c r="VEE37" s="2"/>
-      <c r="VEU37" s="2"/>
-      <c r="VFK37" s="2"/>
-      <c r="VGA37" s="2"/>
-      <c r="VGQ37" s="2"/>
-      <c r="VHG37" s="2"/>
-      <c r="VHW37" s="2"/>
-      <c r="VIM37" s="2"/>
-      <c r="VJC37" s="2"/>
-      <c r="VJS37" s="2"/>
-      <c r="VKI37" s="2"/>
-      <c r="VKY37" s="2"/>
-      <c r="VLO37" s="2"/>
-      <c r="VME37" s="2"/>
-      <c r="VMU37" s="2"/>
-      <c r="VNK37" s="2"/>
-      <c r="VOA37" s="2"/>
-      <c r="VOQ37" s="2"/>
-      <c r="VPG37" s="2"/>
-      <c r="VPW37" s="2"/>
-      <c r="VQM37" s="2"/>
-      <c r="VRC37" s="2"/>
-      <c r="VRS37" s="2"/>
-      <c r="VSI37" s="2"/>
-      <c r="VSY37" s="2"/>
-      <c r="VTO37" s="2"/>
-      <c r="VUE37" s="2"/>
-      <c r="VUU37" s="2"/>
-      <c r="VVK37" s="2"/>
-      <c r="VWA37" s="2"/>
-      <c r="VWQ37" s="2"/>
-      <c r="VXG37" s="2"/>
-      <c r="VXW37" s="2"/>
-      <c r="VYM37" s="2"/>
-      <c r="VZC37" s="2"/>
-      <c r="VZS37" s="2"/>
-      <c r="WAI37" s="2"/>
-      <c r="WAY37" s="2"/>
-      <c r="WBO37" s="2"/>
-      <c r="WCE37" s="2"/>
-      <c r="WCU37" s="2"/>
-      <c r="WDK37" s="2"/>
-      <c r="WEA37" s="2"/>
-      <c r="WEQ37" s="2"/>
-      <c r="WFG37" s="2"/>
-      <c r="WFW37" s="2"/>
-      <c r="WGM37" s="2"/>
-      <c r="WHC37" s="2"/>
-      <c r="WHS37" s="2"/>
-      <c r="WII37" s="2"/>
-      <c r="WIY37" s="2"/>
-      <c r="WJO37" s="2"/>
-      <c r="WKE37" s="2"/>
-      <c r="WKU37" s="2"/>
-      <c r="WLK37" s="2"/>
-      <c r="WMA37" s="2"/>
-      <c r="WMQ37" s="2"/>
-      <c r="WNG37" s="2"/>
-      <c r="WNW37" s="2"/>
-      <c r="WOM37" s="2"/>
-      <c r="WPC37" s="2"/>
-      <c r="WPS37" s="2"/>
-      <c r="WQI37" s="2"/>
-      <c r="WQY37" s="2"/>
-      <c r="WRO37" s="2"/>
-      <c r="WSE37" s="2"/>
-      <c r="WSU37" s="2"/>
-      <c r="WTK37" s="2"/>
-      <c r="WUA37" s="2"/>
-      <c r="WUQ37" s="2"/>
-      <c r="WVG37" s="2"/>
-      <c r="WVW37" s="2"/>
-      <c r="WWM37" s="2"/>
-      <c r="WXC37" s="2"/>
-      <c r="WXS37" s="2"/>
-      <c r="WYI37" s="2"/>
-      <c r="WYY37" s="2"/>
-      <c r="WZO37" s="2"/>
-      <c r="XAE37" s="2"/>
-      <c r="XAU37" s="2"/>
-      <c r="XBK37" s="2"/>
-      <c r="XCA37" s="2"/>
-      <c r="XCQ37" s="2"/>
-      <c r="XDG37" s="2"/>
-      <c r="XDW37" s="2"/>
-      <c r="XEM37" s="2"/>
-      <c r="XFC37" s="2"/>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37">
+        <v>0.10106999999999999</v>
+      </c>
+      <c r="D37">
+        <v>43145</v>
+      </c>
+      <c r="F37">
+        <v>-500</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38">
-        <v>2.299E-2</v>
+        <v>0.10700999999999999</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>50756</v>
+      </c>
+      <c r="F38">
+        <v>-500</v>
       </c>
       <c r="G38" t="s">
         <v>25</v>
@@ -5629,6 +4691,9 @@
         <v>25</v>
       </c>
       <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
         <v>25</v>
       </c>
       <c r="K38" t="s">
@@ -5646,16 +4711,16 @@
         <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C40">
-        <v>7.6410000000000006E-2</v>
+        <v>0.23080999999999999</v>
       </c>
       <c r="D40">
-        <v>78885</v>
+        <v>34234</v>
       </c>
       <c r="F40">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="G40" t="s">
         <v>25</v>
@@ -5666,17 +4731,55 @@
       <c r="I40" t="s">
         <v>25</v>
       </c>
-      <c r="J40" t="s">
-        <v>25</v>
-      </c>
       <c r="K40" t="s">
         <v>25</v>
       </c>
       <c r="L40" t="s">
         <v>25</v>
       </c>
-      <c r="N40" t="s">
-        <v>25</v>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41">
+        <v>0.20485999999999999</v>
+      </c>
+      <c r="D41">
+        <v>29040</v>
+      </c>
+      <c r="F41">
+        <v>-700</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
@@ -5684,45 +4787,1457 @@
         <v>66</v>
       </c>
       <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42">
+        <v>0.21135000000000001</v>
+      </c>
+      <c r="D42">
+        <v>29062</v>
+      </c>
+      <c r="F42">
+        <v>-700</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
+      <c r="O43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="BK43" s="2"/>
+      <c r="CA43" s="2"/>
+      <c r="CQ43" s="2"/>
+      <c r="DG43" s="2"/>
+      <c r="DW43" s="2"/>
+      <c r="EM43" s="2"/>
+      <c r="FC43" s="2"/>
+      <c r="FS43" s="2"/>
+      <c r="GI43" s="2"/>
+      <c r="GY43" s="2"/>
+      <c r="HO43" s="2"/>
+      <c r="IE43" s="2"/>
+      <c r="IU43" s="2"/>
+      <c r="JK43" s="2"/>
+      <c r="KA43" s="2"/>
+      <c r="KQ43" s="2"/>
+      <c r="LG43" s="2"/>
+      <c r="LW43" s="2"/>
+      <c r="MM43" s="2"/>
+      <c r="NC43" s="2"/>
+      <c r="NS43" s="2"/>
+      <c r="OI43" s="2"/>
+      <c r="OY43" s="2"/>
+      <c r="PO43" s="2"/>
+      <c r="QE43" s="2"/>
+      <c r="QU43" s="2"/>
+      <c r="RK43" s="2"/>
+      <c r="SA43" s="2"/>
+      <c r="SQ43" s="2"/>
+      <c r="TG43" s="2"/>
+      <c r="TW43" s="2"/>
+      <c r="UM43" s="2"/>
+      <c r="VC43" s="2"/>
+      <c r="VS43" s="2"/>
+      <c r="WI43" s="2"/>
+      <c r="WY43" s="2"/>
+      <c r="XO43" s="2"/>
+      <c r="YE43" s="2"/>
+      <c r="YU43" s="2"/>
+      <c r="ZK43" s="2"/>
+      <c r="AAA43" s="2"/>
+      <c r="AAQ43" s="2"/>
+      <c r="ABG43" s="2"/>
+      <c r="ABW43" s="2"/>
+      <c r="ACM43" s="2"/>
+      <c r="ADC43" s="2"/>
+      <c r="ADS43" s="2"/>
+      <c r="AEI43" s="2"/>
+      <c r="AEY43" s="2"/>
+      <c r="AFO43" s="2"/>
+      <c r="AGE43" s="2"/>
+      <c r="AGU43" s="2"/>
+      <c r="AHK43" s="2"/>
+      <c r="AIA43" s="2"/>
+      <c r="AIQ43" s="2"/>
+      <c r="AJG43" s="2"/>
+      <c r="AJW43" s="2"/>
+      <c r="AKM43" s="2"/>
+      <c r="ALC43" s="2"/>
+      <c r="ALS43" s="2"/>
+      <c r="AMI43" s="2"/>
+      <c r="AMY43" s="2"/>
+      <c r="ANO43" s="2"/>
+      <c r="AOE43" s="2"/>
+      <c r="AOU43" s="2"/>
+      <c r="APK43" s="2"/>
+      <c r="AQA43" s="2"/>
+      <c r="AQQ43" s="2"/>
+      <c r="ARG43" s="2"/>
+      <c r="ARW43" s="2"/>
+      <c r="ASM43" s="2"/>
+      <c r="ATC43" s="2"/>
+      <c r="ATS43" s="2"/>
+      <c r="AUI43" s="2"/>
+      <c r="AUY43" s="2"/>
+      <c r="AVO43" s="2"/>
+      <c r="AWE43" s="2"/>
+      <c r="AWU43" s="2"/>
+      <c r="AXK43" s="2"/>
+      <c r="AYA43" s="2"/>
+      <c r="AYQ43" s="2"/>
+      <c r="AZG43" s="2"/>
+      <c r="AZW43" s="2"/>
+      <c r="BAM43" s="2"/>
+      <c r="BBC43" s="2"/>
+      <c r="BBS43" s="2"/>
+      <c r="BCI43" s="2"/>
+      <c r="BCY43" s="2"/>
+      <c r="BDO43" s="2"/>
+      <c r="BEE43" s="2"/>
+      <c r="BEU43" s="2"/>
+      <c r="BFK43" s="2"/>
+      <c r="BGA43" s="2"/>
+      <c r="BGQ43" s="2"/>
+      <c r="BHG43" s="2"/>
+      <c r="BHW43" s="2"/>
+      <c r="BIM43" s="2"/>
+      <c r="BJC43" s="2"/>
+      <c r="BJS43" s="2"/>
+      <c r="BKI43" s="2"/>
+      <c r="BKY43" s="2"/>
+      <c r="BLO43" s="2"/>
+      <c r="BME43" s="2"/>
+      <c r="BMU43" s="2"/>
+      <c r="BNK43" s="2"/>
+      <c r="BOA43" s="2"/>
+      <c r="BOQ43" s="2"/>
+      <c r="BPG43" s="2"/>
+      <c r="BPW43" s="2"/>
+      <c r="BQM43" s="2"/>
+      <c r="BRC43" s="2"/>
+      <c r="BRS43" s="2"/>
+      <c r="BSI43" s="2"/>
+      <c r="BSY43" s="2"/>
+      <c r="BTO43" s="2"/>
+      <c r="BUE43" s="2"/>
+      <c r="BUU43" s="2"/>
+      <c r="BVK43" s="2"/>
+      <c r="BWA43" s="2"/>
+      <c r="BWQ43" s="2"/>
+      <c r="BXG43" s="2"/>
+      <c r="BXW43" s="2"/>
+      <c r="BYM43" s="2"/>
+      <c r="BZC43" s="2"/>
+      <c r="BZS43" s="2"/>
+      <c r="CAI43" s="2"/>
+      <c r="CAY43" s="2"/>
+      <c r="CBO43" s="2"/>
+      <c r="CCE43" s="2"/>
+      <c r="CCU43" s="2"/>
+      <c r="CDK43" s="2"/>
+      <c r="CEA43" s="2"/>
+      <c r="CEQ43" s="2"/>
+      <c r="CFG43" s="2"/>
+      <c r="CFW43" s="2"/>
+      <c r="CGM43" s="2"/>
+      <c r="CHC43" s="2"/>
+      <c r="CHS43" s="2"/>
+      <c r="CII43" s="2"/>
+      <c r="CIY43" s="2"/>
+      <c r="CJO43" s="2"/>
+      <c r="CKE43" s="2"/>
+      <c r="CKU43" s="2"/>
+      <c r="CLK43" s="2"/>
+      <c r="CMA43" s="2"/>
+      <c r="CMQ43" s="2"/>
+      <c r="CNG43" s="2"/>
+      <c r="CNW43" s="2"/>
+      <c r="COM43" s="2"/>
+      <c r="CPC43" s="2"/>
+      <c r="CPS43" s="2"/>
+      <c r="CQI43" s="2"/>
+      <c r="CQY43" s="2"/>
+      <c r="CRO43" s="2"/>
+      <c r="CSE43" s="2"/>
+      <c r="CSU43" s="2"/>
+      <c r="CTK43" s="2"/>
+      <c r="CUA43" s="2"/>
+      <c r="CUQ43" s="2"/>
+      <c r="CVG43" s="2"/>
+      <c r="CVW43" s="2"/>
+      <c r="CWM43" s="2"/>
+      <c r="CXC43" s="2"/>
+      <c r="CXS43" s="2"/>
+      <c r="CYI43" s="2"/>
+      <c r="CYY43" s="2"/>
+      <c r="CZO43" s="2"/>
+      <c r="DAE43" s="2"/>
+      <c r="DAU43" s="2"/>
+      <c r="DBK43" s="2"/>
+      <c r="DCA43" s="2"/>
+      <c r="DCQ43" s="2"/>
+      <c r="DDG43" s="2"/>
+      <c r="DDW43" s="2"/>
+      <c r="DEM43" s="2"/>
+      <c r="DFC43" s="2"/>
+      <c r="DFS43" s="2"/>
+      <c r="DGI43" s="2"/>
+      <c r="DGY43" s="2"/>
+      <c r="DHO43" s="2"/>
+      <c r="DIE43" s="2"/>
+      <c r="DIU43" s="2"/>
+      <c r="DJK43" s="2"/>
+      <c r="DKA43" s="2"/>
+      <c r="DKQ43" s="2"/>
+      <c r="DLG43" s="2"/>
+      <c r="DLW43" s="2"/>
+      <c r="DMM43" s="2"/>
+      <c r="DNC43" s="2"/>
+      <c r="DNS43" s="2"/>
+      <c r="DOI43" s="2"/>
+      <c r="DOY43" s="2"/>
+      <c r="DPO43" s="2"/>
+      <c r="DQE43" s="2"/>
+      <c r="DQU43" s="2"/>
+      <c r="DRK43" s="2"/>
+      <c r="DSA43" s="2"/>
+      <c r="DSQ43" s="2"/>
+      <c r="DTG43" s="2"/>
+      <c r="DTW43" s="2"/>
+      <c r="DUM43" s="2"/>
+      <c r="DVC43" s="2"/>
+      <c r="DVS43" s="2"/>
+      <c r="DWI43" s="2"/>
+      <c r="DWY43" s="2"/>
+      <c r="DXO43" s="2"/>
+      <c r="DYE43" s="2"/>
+      <c r="DYU43" s="2"/>
+      <c r="DZK43" s="2"/>
+      <c r="EAA43" s="2"/>
+      <c r="EAQ43" s="2"/>
+      <c r="EBG43" s="2"/>
+      <c r="EBW43" s="2"/>
+      <c r="ECM43" s="2"/>
+      <c r="EDC43" s="2"/>
+      <c r="EDS43" s="2"/>
+      <c r="EEI43" s="2"/>
+      <c r="EEY43" s="2"/>
+      <c r="EFO43" s="2"/>
+      <c r="EGE43" s="2"/>
+      <c r="EGU43" s="2"/>
+      <c r="EHK43" s="2"/>
+      <c r="EIA43" s="2"/>
+      <c r="EIQ43" s="2"/>
+      <c r="EJG43" s="2"/>
+      <c r="EJW43" s="2"/>
+      <c r="EKM43" s="2"/>
+      <c r="ELC43" s="2"/>
+      <c r="ELS43" s="2"/>
+      <c r="EMI43" s="2"/>
+      <c r="EMY43" s="2"/>
+      <c r="ENO43" s="2"/>
+      <c r="EOE43" s="2"/>
+      <c r="EOU43" s="2"/>
+      <c r="EPK43" s="2"/>
+      <c r="EQA43" s="2"/>
+      <c r="EQQ43" s="2"/>
+      <c r="ERG43" s="2"/>
+      <c r="ERW43" s="2"/>
+      <c r="ESM43" s="2"/>
+      <c r="ETC43" s="2"/>
+      <c r="ETS43" s="2"/>
+      <c r="EUI43" s="2"/>
+      <c r="EUY43" s="2"/>
+      <c r="EVO43" s="2"/>
+      <c r="EWE43" s="2"/>
+      <c r="EWU43" s="2"/>
+      <c r="EXK43" s="2"/>
+      <c r="EYA43" s="2"/>
+      <c r="EYQ43" s="2"/>
+      <c r="EZG43" s="2"/>
+      <c r="EZW43" s="2"/>
+      <c r="FAM43" s="2"/>
+      <c r="FBC43" s="2"/>
+      <c r="FBS43" s="2"/>
+      <c r="FCI43" s="2"/>
+      <c r="FCY43" s="2"/>
+      <c r="FDO43" s="2"/>
+      <c r="FEE43" s="2"/>
+      <c r="FEU43" s="2"/>
+      <c r="FFK43" s="2"/>
+      <c r="FGA43" s="2"/>
+      <c r="FGQ43" s="2"/>
+      <c r="FHG43" s="2"/>
+      <c r="FHW43" s="2"/>
+      <c r="FIM43" s="2"/>
+      <c r="FJC43" s="2"/>
+      <c r="FJS43" s="2"/>
+      <c r="FKI43" s="2"/>
+      <c r="FKY43" s="2"/>
+      <c r="FLO43" s="2"/>
+      <c r="FME43" s="2"/>
+      <c r="FMU43" s="2"/>
+      <c r="FNK43" s="2"/>
+      <c r="FOA43" s="2"/>
+      <c r="FOQ43" s="2"/>
+      <c r="FPG43" s="2"/>
+      <c r="FPW43" s="2"/>
+      <c r="FQM43" s="2"/>
+      <c r="FRC43" s="2"/>
+      <c r="FRS43" s="2"/>
+      <c r="FSI43" s="2"/>
+      <c r="FSY43" s="2"/>
+      <c r="FTO43" s="2"/>
+      <c r="FUE43" s="2"/>
+      <c r="FUU43" s="2"/>
+      <c r="FVK43" s="2"/>
+      <c r="FWA43" s="2"/>
+      <c r="FWQ43" s="2"/>
+      <c r="FXG43" s="2"/>
+      <c r="FXW43" s="2"/>
+      <c r="FYM43" s="2"/>
+      <c r="FZC43" s="2"/>
+      <c r="FZS43" s="2"/>
+      <c r="GAI43" s="2"/>
+      <c r="GAY43" s="2"/>
+      <c r="GBO43" s="2"/>
+      <c r="GCE43" s="2"/>
+      <c r="GCU43" s="2"/>
+      <c r="GDK43" s="2"/>
+      <c r="GEA43" s="2"/>
+      <c r="GEQ43" s="2"/>
+      <c r="GFG43" s="2"/>
+      <c r="GFW43" s="2"/>
+      <c r="GGM43" s="2"/>
+      <c r="GHC43" s="2"/>
+      <c r="GHS43" s="2"/>
+      <c r="GII43" s="2"/>
+      <c r="GIY43" s="2"/>
+      <c r="GJO43" s="2"/>
+      <c r="GKE43" s="2"/>
+      <c r="GKU43" s="2"/>
+      <c r="GLK43" s="2"/>
+      <c r="GMA43" s="2"/>
+      <c r="GMQ43" s="2"/>
+      <c r="GNG43" s="2"/>
+      <c r="GNW43" s="2"/>
+      <c r="GOM43" s="2"/>
+      <c r="GPC43" s="2"/>
+      <c r="GPS43" s="2"/>
+      <c r="GQI43" s="2"/>
+      <c r="GQY43" s="2"/>
+      <c r="GRO43" s="2"/>
+      <c r="GSE43" s="2"/>
+      <c r="GSU43" s="2"/>
+      <c r="GTK43" s="2"/>
+      <c r="GUA43" s="2"/>
+      <c r="GUQ43" s="2"/>
+      <c r="GVG43" s="2"/>
+      <c r="GVW43" s="2"/>
+      <c r="GWM43" s="2"/>
+      <c r="GXC43" s="2"/>
+      <c r="GXS43" s="2"/>
+      <c r="GYI43" s="2"/>
+      <c r="GYY43" s="2"/>
+      <c r="GZO43" s="2"/>
+      <c r="HAE43" s="2"/>
+      <c r="HAU43" s="2"/>
+      <c r="HBK43" s="2"/>
+      <c r="HCA43" s="2"/>
+      <c r="HCQ43" s="2"/>
+      <c r="HDG43" s="2"/>
+      <c r="HDW43" s="2"/>
+      <c r="HEM43" s="2"/>
+      <c r="HFC43" s="2"/>
+      <c r="HFS43" s="2"/>
+      <c r="HGI43" s="2"/>
+      <c r="HGY43" s="2"/>
+      <c r="HHO43" s="2"/>
+      <c r="HIE43" s="2"/>
+      <c r="HIU43" s="2"/>
+      <c r="HJK43" s="2"/>
+      <c r="HKA43" s="2"/>
+      <c r="HKQ43" s="2"/>
+      <c r="HLG43" s="2"/>
+      <c r="HLW43" s="2"/>
+      <c r="HMM43" s="2"/>
+      <c r="HNC43" s="2"/>
+      <c r="HNS43" s="2"/>
+      <c r="HOI43" s="2"/>
+      <c r="HOY43" s="2"/>
+      <c r="HPO43" s="2"/>
+      <c r="HQE43" s="2"/>
+      <c r="HQU43" s="2"/>
+      <c r="HRK43" s="2"/>
+      <c r="HSA43" s="2"/>
+      <c r="HSQ43" s="2"/>
+      <c r="HTG43" s="2"/>
+      <c r="HTW43" s="2"/>
+      <c r="HUM43" s="2"/>
+      <c r="HVC43" s="2"/>
+      <c r="HVS43" s="2"/>
+      <c r="HWI43" s="2"/>
+      <c r="HWY43" s="2"/>
+      <c r="HXO43" s="2"/>
+      <c r="HYE43" s="2"/>
+      <c r="HYU43" s="2"/>
+      <c r="HZK43" s="2"/>
+      <c r="IAA43" s="2"/>
+      <c r="IAQ43" s="2"/>
+      <c r="IBG43" s="2"/>
+      <c r="IBW43" s="2"/>
+      <c r="ICM43" s="2"/>
+      <c r="IDC43" s="2"/>
+      <c r="IDS43" s="2"/>
+      <c r="IEI43" s="2"/>
+      <c r="IEY43" s="2"/>
+      <c r="IFO43" s="2"/>
+      <c r="IGE43" s="2"/>
+      <c r="IGU43" s="2"/>
+      <c r="IHK43" s="2"/>
+      <c r="IIA43" s="2"/>
+      <c r="IIQ43" s="2"/>
+      <c r="IJG43" s="2"/>
+      <c r="IJW43" s="2"/>
+      <c r="IKM43" s="2"/>
+      <c r="ILC43" s="2"/>
+      <c r="ILS43" s="2"/>
+      <c r="IMI43" s="2"/>
+      <c r="IMY43" s="2"/>
+      <c r="INO43" s="2"/>
+      <c r="IOE43" s="2"/>
+      <c r="IOU43" s="2"/>
+      <c r="IPK43" s="2"/>
+      <c r="IQA43" s="2"/>
+      <c r="IQQ43" s="2"/>
+      <c r="IRG43" s="2"/>
+      <c r="IRW43" s="2"/>
+      <c r="ISM43" s="2"/>
+      <c r="ITC43" s="2"/>
+      <c r="ITS43" s="2"/>
+      <c r="IUI43" s="2"/>
+      <c r="IUY43" s="2"/>
+      <c r="IVO43" s="2"/>
+      <c r="IWE43" s="2"/>
+      <c r="IWU43" s="2"/>
+      <c r="IXK43" s="2"/>
+      <c r="IYA43" s="2"/>
+      <c r="IYQ43" s="2"/>
+      <c r="IZG43" s="2"/>
+      <c r="IZW43" s="2"/>
+      <c r="JAM43" s="2"/>
+      <c r="JBC43" s="2"/>
+      <c r="JBS43" s="2"/>
+      <c r="JCI43" s="2"/>
+      <c r="JCY43" s="2"/>
+      <c r="JDO43" s="2"/>
+      <c r="JEE43" s="2"/>
+      <c r="JEU43" s="2"/>
+      <c r="JFK43" s="2"/>
+      <c r="JGA43" s="2"/>
+      <c r="JGQ43" s="2"/>
+      <c r="JHG43" s="2"/>
+      <c r="JHW43" s="2"/>
+      <c r="JIM43" s="2"/>
+      <c r="JJC43" s="2"/>
+      <c r="JJS43" s="2"/>
+      <c r="JKI43" s="2"/>
+      <c r="JKY43" s="2"/>
+      <c r="JLO43" s="2"/>
+      <c r="JME43" s="2"/>
+      <c r="JMU43" s="2"/>
+      <c r="JNK43" s="2"/>
+      <c r="JOA43" s="2"/>
+      <c r="JOQ43" s="2"/>
+      <c r="JPG43" s="2"/>
+      <c r="JPW43" s="2"/>
+      <c r="JQM43" s="2"/>
+      <c r="JRC43" s="2"/>
+      <c r="JRS43" s="2"/>
+      <c r="JSI43" s="2"/>
+      <c r="JSY43" s="2"/>
+      <c r="JTO43" s="2"/>
+      <c r="JUE43" s="2"/>
+      <c r="JUU43" s="2"/>
+      <c r="JVK43" s="2"/>
+      <c r="JWA43" s="2"/>
+      <c r="JWQ43" s="2"/>
+      <c r="JXG43" s="2"/>
+      <c r="JXW43" s="2"/>
+      <c r="JYM43" s="2"/>
+      <c r="JZC43" s="2"/>
+      <c r="JZS43" s="2"/>
+      <c r="KAI43" s="2"/>
+      <c r="KAY43" s="2"/>
+      <c r="KBO43" s="2"/>
+      <c r="KCE43" s="2"/>
+      <c r="KCU43" s="2"/>
+      <c r="KDK43" s="2"/>
+      <c r="KEA43" s="2"/>
+      <c r="KEQ43" s="2"/>
+      <c r="KFG43" s="2"/>
+      <c r="KFW43" s="2"/>
+      <c r="KGM43" s="2"/>
+      <c r="KHC43" s="2"/>
+      <c r="KHS43" s="2"/>
+      <c r="KII43" s="2"/>
+      <c r="KIY43" s="2"/>
+      <c r="KJO43" s="2"/>
+      <c r="KKE43" s="2"/>
+      <c r="KKU43" s="2"/>
+      <c r="KLK43" s="2"/>
+      <c r="KMA43" s="2"/>
+      <c r="KMQ43" s="2"/>
+      <c r="KNG43" s="2"/>
+      <c r="KNW43" s="2"/>
+      <c r="KOM43" s="2"/>
+      <c r="KPC43" s="2"/>
+      <c r="KPS43" s="2"/>
+      <c r="KQI43" s="2"/>
+      <c r="KQY43" s="2"/>
+      <c r="KRO43" s="2"/>
+      <c r="KSE43" s="2"/>
+      <c r="KSU43" s="2"/>
+      <c r="KTK43" s="2"/>
+      <c r="KUA43" s="2"/>
+      <c r="KUQ43" s="2"/>
+      <c r="KVG43" s="2"/>
+      <c r="KVW43" s="2"/>
+      <c r="KWM43" s="2"/>
+      <c r="KXC43" s="2"/>
+      <c r="KXS43" s="2"/>
+      <c r="KYI43" s="2"/>
+      <c r="KYY43" s="2"/>
+      <c r="KZO43" s="2"/>
+      <c r="LAE43" s="2"/>
+      <c r="LAU43" s="2"/>
+      <c r="LBK43" s="2"/>
+      <c r="LCA43" s="2"/>
+      <c r="LCQ43" s="2"/>
+      <c r="LDG43" s="2"/>
+      <c r="LDW43" s="2"/>
+      <c r="LEM43" s="2"/>
+      <c r="LFC43" s="2"/>
+      <c r="LFS43" s="2"/>
+      <c r="LGI43" s="2"/>
+      <c r="LGY43" s="2"/>
+      <c r="LHO43" s="2"/>
+      <c r="LIE43" s="2"/>
+      <c r="LIU43" s="2"/>
+      <c r="LJK43" s="2"/>
+      <c r="LKA43" s="2"/>
+      <c r="LKQ43" s="2"/>
+      <c r="LLG43" s="2"/>
+      <c r="LLW43" s="2"/>
+      <c r="LMM43" s="2"/>
+      <c r="LNC43" s="2"/>
+      <c r="LNS43" s="2"/>
+      <c r="LOI43" s="2"/>
+      <c r="LOY43" s="2"/>
+      <c r="LPO43" s="2"/>
+      <c r="LQE43" s="2"/>
+      <c r="LQU43" s="2"/>
+      <c r="LRK43" s="2"/>
+      <c r="LSA43" s="2"/>
+      <c r="LSQ43" s="2"/>
+      <c r="LTG43" s="2"/>
+      <c r="LTW43" s="2"/>
+      <c r="LUM43" s="2"/>
+      <c r="LVC43" s="2"/>
+      <c r="LVS43" s="2"/>
+      <c r="LWI43" s="2"/>
+      <c r="LWY43" s="2"/>
+      <c r="LXO43" s="2"/>
+      <c r="LYE43" s="2"/>
+      <c r="LYU43" s="2"/>
+      <c r="LZK43" s="2"/>
+      <c r="MAA43" s="2"/>
+      <c r="MAQ43" s="2"/>
+      <c r="MBG43" s="2"/>
+      <c r="MBW43" s="2"/>
+      <c r="MCM43" s="2"/>
+      <c r="MDC43" s="2"/>
+      <c r="MDS43" s="2"/>
+      <c r="MEI43" s="2"/>
+      <c r="MEY43" s="2"/>
+      <c r="MFO43" s="2"/>
+      <c r="MGE43" s="2"/>
+      <c r="MGU43" s="2"/>
+      <c r="MHK43" s="2"/>
+      <c r="MIA43" s="2"/>
+      <c r="MIQ43" s="2"/>
+      <c r="MJG43" s="2"/>
+      <c r="MJW43" s="2"/>
+      <c r="MKM43" s="2"/>
+      <c r="MLC43" s="2"/>
+      <c r="MLS43" s="2"/>
+      <c r="MMI43" s="2"/>
+      <c r="MMY43" s="2"/>
+      <c r="MNO43" s="2"/>
+      <c r="MOE43" s="2"/>
+      <c r="MOU43" s="2"/>
+      <c r="MPK43" s="2"/>
+      <c r="MQA43" s="2"/>
+      <c r="MQQ43" s="2"/>
+      <c r="MRG43" s="2"/>
+      <c r="MRW43" s="2"/>
+      <c r="MSM43" s="2"/>
+      <c r="MTC43" s="2"/>
+      <c r="MTS43" s="2"/>
+      <c r="MUI43" s="2"/>
+      <c r="MUY43" s="2"/>
+      <c r="MVO43" s="2"/>
+      <c r="MWE43" s="2"/>
+      <c r="MWU43" s="2"/>
+      <c r="MXK43" s="2"/>
+      <c r="MYA43" s="2"/>
+      <c r="MYQ43" s="2"/>
+      <c r="MZG43" s="2"/>
+      <c r="MZW43" s="2"/>
+      <c r="NAM43" s="2"/>
+      <c r="NBC43" s="2"/>
+      <c r="NBS43" s="2"/>
+      <c r="NCI43" s="2"/>
+      <c r="NCY43" s="2"/>
+      <c r="NDO43" s="2"/>
+      <c r="NEE43" s="2"/>
+      <c r="NEU43" s="2"/>
+      <c r="NFK43" s="2"/>
+      <c r="NGA43" s="2"/>
+      <c r="NGQ43" s="2"/>
+      <c r="NHG43" s="2"/>
+      <c r="NHW43" s="2"/>
+      <c r="NIM43" s="2"/>
+      <c r="NJC43" s="2"/>
+      <c r="NJS43" s="2"/>
+      <c r="NKI43" s="2"/>
+      <c r="NKY43" s="2"/>
+      <c r="NLO43" s="2"/>
+      <c r="NME43" s="2"/>
+      <c r="NMU43" s="2"/>
+      <c r="NNK43" s="2"/>
+      <c r="NOA43" s="2"/>
+      <c r="NOQ43" s="2"/>
+      <c r="NPG43" s="2"/>
+      <c r="NPW43" s="2"/>
+      <c r="NQM43" s="2"/>
+      <c r="NRC43" s="2"/>
+      <c r="NRS43" s="2"/>
+      <c r="NSI43" s="2"/>
+      <c r="NSY43" s="2"/>
+      <c r="NTO43" s="2"/>
+      <c r="NUE43" s="2"/>
+      <c r="NUU43" s="2"/>
+      <c r="NVK43" s="2"/>
+      <c r="NWA43" s="2"/>
+      <c r="NWQ43" s="2"/>
+      <c r="NXG43" s="2"/>
+      <c r="NXW43" s="2"/>
+      <c r="NYM43" s="2"/>
+      <c r="NZC43" s="2"/>
+      <c r="NZS43" s="2"/>
+      <c r="OAI43" s="2"/>
+      <c r="OAY43" s="2"/>
+      <c r="OBO43" s="2"/>
+      <c r="OCE43" s="2"/>
+      <c r="OCU43" s="2"/>
+      <c r="ODK43" s="2"/>
+      <c r="OEA43" s="2"/>
+      <c r="OEQ43" s="2"/>
+      <c r="OFG43" s="2"/>
+      <c r="OFW43" s="2"/>
+      <c r="OGM43" s="2"/>
+      <c r="OHC43" s="2"/>
+      <c r="OHS43" s="2"/>
+      <c r="OII43" s="2"/>
+      <c r="OIY43" s="2"/>
+      <c r="OJO43" s="2"/>
+      <c r="OKE43" s="2"/>
+      <c r="OKU43" s="2"/>
+      <c r="OLK43" s="2"/>
+      <c r="OMA43" s="2"/>
+      <c r="OMQ43" s="2"/>
+      <c r="ONG43" s="2"/>
+      <c r="ONW43" s="2"/>
+      <c r="OOM43" s="2"/>
+      <c r="OPC43" s="2"/>
+      <c r="OPS43" s="2"/>
+      <c r="OQI43" s="2"/>
+      <c r="OQY43" s="2"/>
+      <c r="ORO43" s="2"/>
+      <c r="OSE43" s="2"/>
+      <c r="OSU43" s="2"/>
+      <c r="OTK43" s="2"/>
+      <c r="OUA43" s="2"/>
+      <c r="OUQ43" s="2"/>
+      <c r="OVG43" s="2"/>
+      <c r="OVW43" s="2"/>
+      <c r="OWM43" s="2"/>
+      <c r="OXC43" s="2"/>
+      <c r="OXS43" s="2"/>
+      <c r="OYI43" s="2"/>
+      <c r="OYY43" s="2"/>
+      <c r="OZO43" s="2"/>
+      <c r="PAE43" s="2"/>
+      <c r="PAU43" s="2"/>
+      <c r="PBK43" s="2"/>
+      <c r="PCA43" s="2"/>
+      <c r="PCQ43" s="2"/>
+      <c r="PDG43" s="2"/>
+      <c r="PDW43" s="2"/>
+      <c r="PEM43" s="2"/>
+      <c r="PFC43" s="2"/>
+      <c r="PFS43" s="2"/>
+      <c r="PGI43" s="2"/>
+      <c r="PGY43" s="2"/>
+      <c r="PHO43" s="2"/>
+      <c r="PIE43" s="2"/>
+      <c r="PIU43" s="2"/>
+      <c r="PJK43" s="2"/>
+      <c r="PKA43" s="2"/>
+      <c r="PKQ43" s="2"/>
+      <c r="PLG43" s="2"/>
+      <c r="PLW43" s="2"/>
+      <c r="PMM43" s="2"/>
+      <c r="PNC43" s="2"/>
+      <c r="PNS43" s="2"/>
+      <c r="POI43" s="2"/>
+      <c r="POY43" s="2"/>
+      <c r="PPO43" s="2"/>
+      <c r="PQE43" s="2"/>
+      <c r="PQU43" s="2"/>
+      <c r="PRK43" s="2"/>
+      <c r="PSA43" s="2"/>
+      <c r="PSQ43" s="2"/>
+      <c r="PTG43" s="2"/>
+      <c r="PTW43" s="2"/>
+      <c r="PUM43" s="2"/>
+      <c r="PVC43" s="2"/>
+      <c r="PVS43" s="2"/>
+      <c r="PWI43" s="2"/>
+      <c r="PWY43" s="2"/>
+      <c r="PXO43" s="2"/>
+      <c r="PYE43" s="2"/>
+      <c r="PYU43" s="2"/>
+      <c r="PZK43" s="2"/>
+      <c r="QAA43" s="2"/>
+      <c r="QAQ43" s="2"/>
+      <c r="QBG43" s="2"/>
+      <c r="QBW43" s="2"/>
+      <c r="QCM43" s="2"/>
+      <c r="QDC43" s="2"/>
+      <c r="QDS43" s="2"/>
+      <c r="QEI43" s="2"/>
+      <c r="QEY43" s="2"/>
+      <c r="QFO43" s="2"/>
+      <c r="QGE43" s="2"/>
+      <c r="QGU43" s="2"/>
+      <c r="QHK43" s="2"/>
+      <c r="QIA43" s="2"/>
+      <c r="QIQ43" s="2"/>
+      <c r="QJG43" s="2"/>
+      <c r="QJW43" s="2"/>
+      <c r="QKM43" s="2"/>
+      <c r="QLC43" s="2"/>
+      <c r="QLS43" s="2"/>
+      <c r="QMI43" s="2"/>
+      <c r="QMY43" s="2"/>
+      <c r="QNO43" s="2"/>
+      <c r="QOE43" s="2"/>
+      <c r="QOU43" s="2"/>
+      <c r="QPK43" s="2"/>
+      <c r="QQA43" s="2"/>
+      <c r="QQQ43" s="2"/>
+      <c r="QRG43" s="2"/>
+      <c r="QRW43" s="2"/>
+      <c r="QSM43" s="2"/>
+      <c r="QTC43" s="2"/>
+      <c r="QTS43" s="2"/>
+      <c r="QUI43" s="2"/>
+      <c r="QUY43" s="2"/>
+      <c r="QVO43" s="2"/>
+      <c r="QWE43" s="2"/>
+      <c r="QWU43" s="2"/>
+      <c r="QXK43" s="2"/>
+      <c r="QYA43" s="2"/>
+      <c r="QYQ43" s="2"/>
+      <c r="QZG43" s="2"/>
+      <c r="QZW43" s="2"/>
+      <c r="RAM43" s="2"/>
+      <c r="RBC43" s="2"/>
+      <c r="RBS43" s="2"/>
+      <c r="RCI43" s="2"/>
+      <c r="RCY43" s="2"/>
+      <c r="RDO43" s="2"/>
+      <c r="REE43" s="2"/>
+      <c r="REU43" s="2"/>
+      <c r="RFK43" s="2"/>
+      <c r="RGA43" s="2"/>
+      <c r="RGQ43" s="2"/>
+      <c r="RHG43" s="2"/>
+      <c r="RHW43" s="2"/>
+      <c r="RIM43" s="2"/>
+      <c r="RJC43" s="2"/>
+      <c r="RJS43" s="2"/>
+      <c r="RKI43" s="2"/>
+      <c r="RKY43" s="2"/>
+      <c r="RLO43" s="2"/>
+      <c r="RME43" s="2"/>
+      <c r="RMU43" s="2"/>
+      <c r="RNK43" s="2"/>
+      <c r="ROA43" s="2"/>
+      <c r="ROQ43" s="2"/>
+      <c r="RPG43" s="2"/>
+      <c r="RPW43" s="2"/>
+      <c r="RQM43" s="2"/>
+      <c r="RRC43" s="2"/>
+      <c r="RRS43" s="2"/>
+      <c r="RSI43" s="2"/>
+      <c r="RSY43" s="2"/>
+      <c r="RTO43" s="2"/>
+      <c r="RUE43" s="2"/>
+      <c r="RUU43" s="2"/>
+      <c r="RVK43" s="2"/>
+      <c r="RWA43" s="2"/>
+      <c r="RWQ43" s="2"/>
+      <c r="RXG43" s="2"/>
+      <c r="RXW43" s="2"/>
+      <c r="RYM43" s="2"/>
+      <c r="RZC43" s="2"/>
+      <c r="RZS43" s="2"/>
+      <c r="SAI43" s="2"/>
+      <c r="SAY43" s="2"/>
+      <c r="SBO43" s="2"/>
+      <c r="SCE43" s="2"/>
+      <c r="SCU43" s="2"/>
+      <c r="SDK43" s="2"/>
+      <c r="SEA43" s="2"/>
+      <c r="SEQ43" s="2"/>
+      <c r="SFG43" s="2"/>
+      <c r="SFW43" s="2"/>
+      <c r="SGM43" s="2"/>
+      <c r="SHC43" s="2"/>
+      <c r="SHS43" s="2"/>
+      <c r="SII43" s="2"/>
+      <c r="SIY43" s="2"/>
+      <c r="SJO43" s="2"/>
+      <c r="SKE43" s="2"/>
+      <c r="SKU43" s="2"/>
+      <c r="SLK43" s="2"/>
+      <c r="SMA43" s="2"/>
+      <c r="SMQ43" s="2"/>
+      <c r="SNG43" s="2"/>
+      <c r="SNW43" s="2"/>
+      <c r="SOM43" s="2"/>
+      <c r="SPC43" s="2"/>
+      <c r="SPS43" s="2"/>
+      <c r="SQI43" s="2"/>
+      <c r="SQY43" s="2"/>
+      <c r="SRO43" s="2"/>
+      <c r="SSE43" s="2"/>
+      <c r="SSU43" s="2"/>
+      <c r="STK43" s="2"/>
+      <c r="SUA43" s="2"/>
+      <c r="SUQ43" s="2"/>
+      <c r="SVG43" s="2"/>
+      <c r="SVW43" s="2"/>
+      <c r="SWM43" s="2"/>
+      <c r="SXC43" s="2"/>
+      <c r="SXS43" s="2"/>
+      <c r="SYI43" s="2"/>
+      <c r="SYY43" s="2"/>
+      <c r="SZO43" s="2"/>
+      <c r="TAE43" s="2"/>
+      <c r="TAU43" s="2"/>
+      <c r="TBK43" s="2"/>
+      <c r="TCA43" s="2"/>
+      <c r="TCQ43" s="2"/>
+      <c r="TDG43" s="2"/>
+      <c r="TDW43" s="2"/>
+      <c r="TEM43" s="2"/>
+      <c r="TFC43" s="2"/>
+      <c r="TFS43" s="2"/>
+      <c r="TGI43" s="2"/>
+      <c r="TGY43" s="2"/>
+      <c r="THO43" s="2"/>
+      <c r="TIE43" s="2"/>
+      <c r="TIU43" s="2"/>
+      <c r="TJK43" s="2"/>
+      <c r="TKA43" s="2"/>
+      <c r="TKQ43" s="2"/>
+      <c r="TLG43" s="2"/>
+      <c r="TLW43" s="2"/>
+      <c r="TMM43" s="2"/>
+      <c r="TNC43" s="2"/>
+      <c r="TNS43" s="2"/>
+      <c r="TOI43" s="2"/>
+      <c r="TOY43" s="2"/>
+      <c r="TPO43" s="2"/>
+      <c r="TQE43" s="2"/>
+      <c r="TQU43" s="2"/>
+      <c r="TRK43" s="2"/>
+      <c r="TSA43" s="2"/>
+      <c r="TSQ43" s="2"/>
+      <c r="TTG43" s="2"/>
+      <c r="TTW43" s="2"/>
+      <c r="TUM43" s="2"/>
+      <c r="TVC43" s="2"/>
+      <c r="TVS43" s="2"/>
+      <c r="TWI43" s="2"/>
+      <c r="TWY43" s="2"/>
+      <c r="TXO43" s="2"/>
+      <c r="TYE43" s="2"/>
+      <c r="TYU43" s="2"/>
+      <c r="TZK43" s="2"/>
+      <c r="UAA43" s="2"/>
+      <c r="UAQ43" s="2"/>
+      <c r="UBG43" s="2"/>
+      <c r="UBW43" s="2"/>
+      <c r="UCM43" s="2"/>
+      <c r="UDC43" s="2"/>
+      <c r="UDS43" s="2"/>
+      <c r="UEI43" s="2"/>
+      <c r="UEY43" s="2"/>
+      <c r="UFO43" s="2"/>
+      <c r="UGE43" s="2"/>
+      <c r="UGU43" s="2"/>
+      <c r="UHK43" s="2"/>
+      <c r="UIA43" s="2"/>
+      <c r="UIQ43" s="2"/>
+      <c r="UJG43" s="2"/>
+      <c r="UJW43" s="2"/>
+      <c r="UKM43" s="2"/>
+      <c r="ULC43" s="2"/>
+      <c r="ULS43" s="2"/>
+      <c r="UMI43" s="2"/>
+      <c r="UMY43" s="2"/>
+      <c r="UNO43" s="2"/>
+      <c r="UOE43" s="2"/>
+      <c r="UOU43" s="2"/>
+      <c r="UPK43" s="2"/>
+      <c r="UQA43" s="2"/>
+      <c r="UQQ43" s="2"/>
+      <c r="URG43" s="2"/>
+      <c r="URW43" s="2"/>
+      <c r="USM43" s="2"/>
+      <c r="UTC43" s="2"/>
+      <c r="UTS43" s="2"/>
+      <c r="UUI43" s="2"/>
+      <c r="UUY43" s="2"/>
+      <c r="UVO43" s="2"/>
+      <c r="UWE43" s="2"/>
+      <c r="UWU43" s="2"/>
+      <c r="UXK43" s="2"/>
+      <c r="UYA43" s="2"/>
+      <c r="UYQ43" s="2"/>
+      <c r="UZG43" s="2"/>
+      <c r="UZW43" s="2"/>
+      <c r="VAM43" s="2"/>
+      <c r="VBC43" s="2"/>
+      <c r="VBS43" s="2"/>
+      <c r="VCI43" s="2"/>
+      <c r="VCY43" s="2"/>
+      <c r="VDO43" s="2"/>
+      <c r="VEE43" s="2"/>
+      <c r="VEU43" s="2"/>
+      <c r="VFK43" s="2"/>
+      <c r="VGA43" s="2"/>
+      <c r="VGQ43" s="2"/>
+      <c r="VHG43" s="2"/>
+      <c r="VHW43" s="2"/>
+      <c r="VIM43" s="2"/>
+      <c r="VJC43" s="2"/>
+      <c r="VJS43" s="2"/>
+      <c r="VKI43" s="2"/>
+      <c r="VKY43" s="2"/>
+      <c r="VLO43" s="2"/>
+      <c r="VME43" s="2"/>
+      <c r="VMU43" s="2"/>
+      <c r="VNK43" s="2"/>
+      <c r="VOA43" s="2"/>
+      <c r="VOQ43" s="2"/>
+      <c r="VPG43" s="2"/>
+      <c r="VPW43" s="2"/>
+      <c r="VQM43" s="2"/>
+      <c r="VRC43" s="2"/>
+      <c r="VRS43" s="2"/>
+      <c r="VSI43" s="2"/>
+      <c r="VSY43" s="2"/>
+      <c r="VTO43" s="2"/>
+      <c r="VUE43" s="2"/>
+      <c r="VUU43" s="2"/>
+      <c r="VVK43" s="2"/>
+      <c r="VWA43" s="2"/>
+      <c r="VWQ43" s="2"/>
+      <c r="VXG43" s="2"/>
+      <c r="VXW43" s="2"/>
+      <c r="VYM43" s="2"/>
+      <c r="VZC43" s="2"/>
+      <c r="VZS43" s="2"/>
+      <c r="WAI43" s="2"/>
+      <c r="WAY43" s="2"/>
+      <c r="WBO43" s="2"/>
+      <c r="WCE43" s="2"/>
+      <c r="WCU43" s="2"/>
+      <c r="WDK43" s="2"/>
+      <c r="WEA43" s="2"/>
+      <c r="WEQ43" s="2"/>
+      <c r="WFG43" s="2"/>
+      <c r="WFW43" s="2"/>
+      <c r="WGM43" s="2"/>
+      <c r="WHC43" s="2"/>
+      <c r="WHS43" s="2"/>
+      <c r="WII43" s="2"/>
+      <c r="WIY43" s="2"/>
+      <c r="WJO43" s="2"/>
+      <c r="WKE43" s="2"/>
+      <c r="WKU43" s="2"/>
+      <c r="WLK43" s="2"/>
+      <c r="WMA43" s="2"/>
+      <c r="WMQ43" s="2"/>
+      <c r="WNG43" s="2"/>
+      <c r="WNW43" s="2"/>
+      <c r="WOM43" s="2"/>
+      <c r="WPC43" s="2"/>
+      <c r="WPS43" s="2"/>
+      <c r="WQI43" s="2"/>
+      <c r="WQY43" s="2"/>
+      <c r="WRO43" s="2"/>
+      <c r="WSE43" s="2"/>
+      <c r="WSU43" s="2"/>
+      <c r="WTK43" s="2"/>
+      <c r="WUA43" s="2"/>
+      <c r="WUQ43" s="2"/>
+      <c r="WVG43" s="2"/>
+      <c r="WVW43" s="2"/>
+      <c r="WWM43" s="2"/>
+      <c r="WXC43" s="2"/>
+      <c r="WXS43" s="2"/>
+      <c r="WYI43" s="2"/>
+      <c r="WYY43" s="2"/>
+      <c r="WZO43" s="2"/>
+      <c r="XAE43" s="2"/>
+      <c r="XAU43" s="2"/>
+      <c r="XBK43" s="2"/>
+      <c r="XCA43" s="2"/>
+      <c r="XCQ43" s="2"/>
+      <c r="XDG43" s="2"/>
+      <c r="XDW43" s="2"/>
+      <c r="XEM43" s="2"/>
+      <c r="XFC43" s="2"/>
+    </row>
+    <row r="44" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44">
+        <v>2.299E-2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46">
+        <v>7.6410000000000006E-2</v>
+      </c>
+      <c r="D46">
+        <v>78885</v>
+      </c>
+      <c r="F46">
+        <v>-300</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="C42">
+      <c r="C48">
         <v>8.6410000000000001E-2</v>
       </c>
-      <c r="D42">
+      <c r="D48">
         <v>295942</v>
       </c>
-      <c r="F42">
+      <c r="F48">
         <v>0</v>
       </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="2">
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="2">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50">
+        <v>0.17186999999999999</v>
+      </c>
+      <c r="D50">
+        <v>598943</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52">
+        <v>0.17843000000000001</v>
+      </c>
+      <c r="D52">
+        <v>535669</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53">
+        <v>0.17616000000000001</v>
+      </c>
+      <c r="D53">
+        <v>516237</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54">
+        <v>0.22176999999999999</v>
+      </c>
+      <c r="D54">
+        <v>635042</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56">
+        <v>0.82628000000000001</v>
+      </c>
+      <c r="D56">
+        <v>355844</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57">
+        <v>0.74866999999999995</v>
+      </c>
+      <c r="D57">
+        <v>340897</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LineageW/天堂w_練功.xlsx
+++ b/LineageW/天堂w_練功.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="146">
   <si>
     <t>等級</t>
   </si>
@@ -531,10 +531,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>柏伯特2F</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>遺忘寺院</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -580,6 +576,18 @@
   </si>
   <si>
     <t>錢</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃柏特2F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩倍夢島(地)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>厄運夢島(水)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3668,10 +3676,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC57"/>
+  <dimension ref="A1:XFC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3690,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -3740,31 +3748,28 @@
         <v>118</v>
       </c>
       <c r="C2">
-        <v>6.615E-2</v>
+        <v>7.7039999999999997E-2</v>
       </c>
       <c r="D2">
-        <v>41977</v>
+        <v>48635</v>
       </c>
       <c r="F2">
         <v>-700</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,10 +3780,10 @@
         <v>118</v>
       </c>
       <c r="C3">
-        <v>7.7039999999999997E-2</v>
+        <v>6.9419999999999996E-2</v>
       </c>
       <c r="D3">
-        <v>48635</v>
+        <v>58299</v>
       </c>
       <c r="F3">
         <v>-700</v>
@@ -3792,43 +3797,49 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5">
-        <v>5.6309999999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>128541</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>6.615E-2</v>
+      </c>
+      <c r="D4">
+        <v>41977</v>
+      </c>
+      <c r="F4">
+        <v>-700</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3847,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>5.5109999999999999E-2</v>
+        <v>5.6309999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>109874</v>
+        <v>128541</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3863,79 +3874,73 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>66</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>5.5109999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>109874</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
         <v>121</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>8.4510000000000002E-2</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>-200</v>
       </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10">
-        <v>8.5779999999999995E-2</v>
-      </c>
-      <c r="D10">
-        <v>154053</v>
-      </c>
-      <c r="F10">
-        <v>-500</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3947,10 +3952,10 @@
         <v>122</v>
       </c>
       <c r="C11">
-        <v>8.0869999999999997E-2</v>
+        <v>8.5779999999999995E-2</v>
       </c>
       <c r="D11">
-        <v>150041</v>
+        <v>154053</v>
       </c>
       <c r="F11">
         <v>-500</v>
@@ -3974,7 +3979,7 @@
         <v>25</v>
       </c>
       <c r="Q11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,10 +3990,10 @@
         <v>122</v>
       </c>
       <c r="C12">
-        <v>8.2379999999999995E-2</v>
+        <v>8.0869999999999997E-2</v>
       </c>
       <c r="D12">
-        <v>151471</v>
+        <v>150041</v>
       </c>
       <c r="F12">
         <v>-500</v>
@@ -4012,190 +4017,193 @@
         <v>25</v>
       </c>
       <c r="Q12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>8.2379999999999995E-2</v>
+      </c>
+      <c r="D13">
+        <v>151471</v>
+      </c>
+      <c r="F13">
+        <v>-500</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>124</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>7.8049999999999994E-2</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>132832</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>-500</v>
       </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>123</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>-500</v>
       </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>127</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.58321000000000001</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>381871</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="2">
         <v>1</v>
       </c>
-      <c r="P18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="P19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>128</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>9.1209999999999999E-2</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>201621</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22">
-        <v>9.0810000000000002E-2</v>
-      </c>
-      <c r="D22">
-        <v>204999</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4204,13 +4212,13 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23">
-        <v>8.8539999999999994E-2</v>
+        <v>9.0810000000000002E-2</v>
       </c>
       <c r="D23">
-        <v>202298</v>
+        <v>204999</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4234,51 +4242,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>66</v>
       </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25">
-        <v>1.0928899999999999</v>
-      </c>
-      <c r="D25">
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24">
+        <v>8.8539999999999994E-2</v>
+      </c>
+      <c r="D24">
+        <v>202298</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>37</v>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,7 +4285,7 @@
         <v>129</v>
       </c>
       <c r="C26">
-        <v>1.0887899999999999</v>
+        <v>1.0928899999999999</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4333,10 +4329,10 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C27">
-        <v>0.94015000000000004</v>
+        <v>1.0887899999999999</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4383,7 +4379,7 @@
         <v>91</v>
       </c>
       <c r="C28">
-        <v>0.94008000000000003</v>
+        <v>0.94015000000000004</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4430,7 +4426,7 @@
         <v>91</v>
       </c>
       <c r="C29">
-        <v>1.0660099999999999</v>
+        <v>0.94008000000000003</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4477,7 +4473,7 @@
         <v>91</v>
       </c>
       <c r="C30">
-        <v>1.10897</v>
+        <v>1.0660099999999999</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4524,7 +4520,7 @@
         <v>91</v>
       </c>
       <c r="C31">
-        <v>1.15947</v>
+        <v>1.10897</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4560,6 +4556,53 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32">
+        <v>1.15947</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4568,13 +4611,16 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C33">
-        <v>9.2289999999999997E-2</v>
+        <v>1.1002400000000001</v>
       </c>
       <c r="D33">
-        <v>22837</v>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33" t="s">
         <v>25</v>
@@ -4585,11 +4631,26 @@
       <c r="I33" t="s">
         <v>25</v>
       </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
       <c r="K33" t="s">
         <v>25</v>
       </c>
       <c r="L33" t="s">
         <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
@@ -4597,16 +4658,13 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C35">
-        <v>6.8879999999999997E-2</v>
+        <v>9.2289999999999997E-2</v>
       </c>
       <c r="D35">
-        <v>155948</v>
-      </c>
-      <c r="F35">
-        <v>-500</v>
+        <v>22837</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
@@ -4617,16 +4675,10 @@
       <c r="I35" t="s">
         <v>25</v>
       </c>
-      <c r="J35" t="s">
-        <v>25</v>
-      </c>
       <c r="K35" t="s">
         <v>25</v>
       </c>
       <c r="L35" t="s">
-        <v>25</v>
-      </c>
-      <c r="P35" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4635,13 +4687,13 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C37">
-        <v>0.10106999999999999</v>
+        <v>6.8879999999999997E-2</v>
       </c>
       <c r="D37">
-        <v>43145</v>
+        <v>155948</v>
       </c>
       <c r="F37">
         <v>-500</v>
@@ -4668,41 +4720,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="39" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>66</v>
       </c>
-      <c r="B38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38">
-        <v>0.10700999999999999</v>
-      </c>
-      <c r="D38">
-        <v>50756</v>
-      </c>
-      <c r="F38">
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39">
+        <v>0.10106999999999999</v>
+      </c>
+      <c r="D39">
+        <v>43145</v>
+      </c>
+      <c r="F39">
         <v>-500</v>
       </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4714,13 +4766,13 @@
         <v>133</v>
       </c>
       <c r="C40">
-        <v>0.23080999999999999</v>
+        <v>0.10700999999999999</v>
       </c>
       <c r="D40">
-        <v>34234</v>
+        <v>50756</v>
       </c>
       <c r="F40">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="G40" t="s">
         <v>25</v>
@@ -4731,55 +4783,17 @@
       <c r="I40" t="s">
         <v>25</v>
       </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
       <c r="K40" t="s">
         <v>25</v>
       </c>
       <c r="L40" t="s">
         <v>25</v>
       </c>
-      <c r="M40" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41">
-        <v>0.20485999999999999</v>
-      </c>
-      <c r="D41">
-        <v>29040</v>
-      </c>
-      <c r="F41">
-        <v>-700</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0.1</v>
+      <c r="P40" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
@@ -4787,13 +4801,13 @@
         <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42">
-        <v>0.21135000000000001</v>
+        <v>0.23080999999999999</v>
       </c>
       <c r="D42">
-        <v>29062</v>
+        <v>34234</v>
       </c>
       <c r="F42">
         <v>-700</v>
@@ -4816,1046 +4830,63 @@
       <c r="M42" t="s">
         <v>25</v>
       </c>
-      <c r="O42" s="2"/>
+      <c r="O42" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="43" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
-      <c r="O43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AU43" s="2"/>
-      <c r="BK43" s="2"/>
-      <c r="CA43" s="2"/>
-      <c r="CQ43" s="2"/>
-      <c r="DG43" s="2"/>
-      <c r="DW43" s="2"/>
-      <c r="EM43" s="2"/>
-      <c r="FC43" s="2"/>
-      <c r="FS43" s="2"/>
-      <c r="GI43" s="2"/>
-      <c r="GY43" s="2"/>
-      <c r="HO43" s="2"/>
-      <c r="IE43" s="2"/>
-      <c r="IU43" s="2"/>
-      <c r="JK43" s="2"/>
-      <c r="KA43" s="2"/>
-      <c r="KQ43" s="2"/>
-      <c r="LG43" s="2"/>
-      <c r="LW43" s="2"/>
-      <c r="MM43" s="2"/>
-      <c r="NC43" s="2"/>
-      <c r="NS43" s="2"/>
-      <c r="OI43" s="2"/>
-      <c r="OY43" s="2"/>
-      <c r="PO43" s="2"/>
-      <c r="QE43" s="2"/>
-      <c r="QU43" s="2"/>
-      <c r="RK43" s="2"/>
-      <c r="SA43" s="2"/>
-      <c r="SQ43" s="2"/>
-      <c r="TG43" s="2"/>
-      <c r="TW43" s="2"/>
-      <c r="UM43" s="2"/>
-      <c r="VC43" s="2"/>
-      <c r="VS43" s="2"/>
-      <c r="WI43" s="2"/>
-      <c r="WY43" s="2"/>
-      <c r="XO43" s="2"/>
-      <c r="YE43" s="2"/>
-      <c r="YU43" s="2"/>
-      <c r="ZK43" s="2"/>
-      <c r="AAA43" s="2"/>
-      <c r="AAQ43" s="2"/>
-      <c r="ABG43" s="2"/>
-      <c r="ABW43" s="2"/>
-      <c r="ACM43" s="2"/>
-      <c r="ADC43" s="2"/>
-      <c r="ADS43" s="2"/>
-      <c r="AEI43" s="2"/>
-      <c r="AEY43" s="2"/>
-      <c r="AFO43" s="2"/>
-      <c r="AGE43" s="2"/>
-      <c r="AGU43" s="2"/>
-      <c r="AHK43" s="2"/>
-      <c r="AIA43" s="2"/>
-      <c r="AIQ43" s="2"/>
-      <c r="AJG43" s="2"/>
-      <c r="AJW43" s="2"/>
-      <c r="AKM43" s="2"/>
-      <c r="ALC43" s="2"/>
-      <c r="ALS43" s="2"/>
-      <c r="AMI43" s="2"/>
-      <c r="AMY43" s="2"/>
-      <c r="ANO43" s="2"/>
-      <c r="AOE43" s="2"/>
-      <c r="AOU43" s="2"/>
-      <c r="APK43" s="2"/>
-      <c r="AQA43" s="2"/>
-      <c r="AQQ43" s="2"/>
-      <c r="ARG43" s="2"/>
-      <c r="ARW43" s="2"/>
-      <c r="ASM43" s="2"/>
-      <c r="ATC43" s="2"/>
-      <c r="ATS43" s="2"/>
-      <c r="AUI43" s="2"/>
-      <c r="AUY43" s="2"/>
-      <c r="AVO43" s="2"/>
-      <c r="AWE43" s="2"/>
-      <c r="AWU43" s="2"/>
-      <c r="AXK43" s="2"/>
-      <c r="AYA43" s="2"/>
-      <c r="AYQ43" s="2"/>
-      <c r="AZG43" s="2"/>
-      <c r="AZW43" s="2"/>
-      <c r="BAM43" s="2"/>
-      <c r="BBC43" s="2"/>
-      <c r="BBS43" s="2"/>
-      <c r="BCI43" s="2"/>
-      <c r="BCY43" s="2"/>
-      <c r="BDO43" s="2"/>
-      <c r="BEE43" s="2"/>
-      <c r="BEU43" s="2"/>
-      <c r="BFK43" s="2"/>
-      <c r="BGA43" s="2"/>
-      <c r="BGQ43" s="2"/>
-      <c r="BHG43" s="2"/>
-      <c r="BHW43" s="2"/>
-      <c r="BIM43" s="2"/>
-      <c r="BJC43" s="2"/>
-      <c r="BJS43" s="2"/>
-      <c r="BKI43" s="2"/>
-      <c r="BKY43" s="2"/>
-      <c r="BLO43" s="2"/>
-      <c r="BME43" s="2"/>
-      <c r="BMU43" s="2"/>
-      <c r="BNK43" s="2"/>
-      <c r="BOA43" s="2"/>
-      <c r="BOQ43" s="2"/>
-      <c r="BPG43" s="2"/>
-      <c r="BPW43" s="2"/>
-      <c r="BQM43" s="2"/>
-      <c r="BRC43" s="2"/>
-      <c r="BRS43" s="2"/>
-      <c r="BSI43" s="2"/>
-      <c r="BSY43" s="2"/>
-      <c r="BTO43" s="2"/>
-      <c r="BUE43" s="2"/>
-      <c r="BUU43" s="2"/>
-      <c r="BVK43" s="2"/>
-      <c r="BWA43" s="2"/>
-      <c r="BWQ43" s="2"/>
-      <c r="BXG43" s="2"/>
-      <c r="BXW43" s="2"/>
-      <c r="BYM43" s="2"/>
-      <c r="BZC43" s="2"/>
-      <c r="BZS43" s="2"/>
-      <c r="CAI43" s="2"/>
-      <c r="CAY43" s="2"/>
-      <c r="CBO43" s="2"/>
-      <c r="CCE43" s="2"/>
-      <c r="CCU43" s="2"/>
-      <c r="CDK43" s="2"/>
-      <c r="CEA43" s="2"/>
-      <c r="CEQ43" s="2"/>
-      <c r="CFG43" s="2"/>
-      <c r="CFW43" s="2"/>
-      <c r="CGM43" s="2"/>
-      <c r="CHC43" s="2"/>
-      <c r="CHS43" s="2"/>
-      <c r="CII43" s="2"/>
-      <c r="CIY43" s="2"/>
-      <c r="CJO43" s="2"/>
-      <c r="CKE43" s="2"/>
-      <c r="CKU43" s="2"/>
-      <c r="CLK43" s="2"/>
-      <c r="CMA43" s="2"/>
-      <c r="CMQ43" s="2"/>
-      <c r="CNG43" s="2"/>
-      <c r="CNW43" s="2"/>
-      <c r="COM43" s="2"/>
-      <c r="CPC43" s="2"/>
-      <c r="CPS43" s="2"/>
-      <c r="CQI43" s="2"/>
-      <c r="CQY43" s="2"/>
-      <c r="CRO43" s="2"/>
-      <c r="CSE43" s="2"/>
-      <c r="CSU43" s="2"/>
-      <c r="CTK43" s="2"/>
-      <c r="CUA43" s="2"/>
-      <c r="CUQ43" s="2"/>
-      <c r="CVG43" s="2"/>
-      <c r="CVW43" s="2"/>
-      <c r="CWM43" s="2"/>
-      <c r="CXC43" s="2"/>
-      <c r="CXS43" s="2"/>
-      <c r="CYI43" s="2"/>
-      <c r="CYY43" s="2"/>
-      <c r="CZO43" s="2"/>
-      <c r="DAE43" s="2"/>
-      <c r="DAU43" s="2"/>
-      <c r="DBK43" s="2"/>
-      <c r="DCA43" s="2"/>
-      <c r="DCQ43" s="2"/>
-      <c r="DDG43" s="2"/>
-      <c r="DDW43" s="2"/>
-      <c r="DEM43" s="2"/>
-      <c r="DFC43" s="2"/>
-      <c r="DFS43" s="2"/>
-      <c r="DGI43" s="2"/>
-      <c r="DGY43" s="2"/>
-      <c r="DHO43" s="2"/>
-      <c r="DIE43" s="2"/>
-      <c r="DIU43" s="2"/>
-      <c r="DJK43" s="2"/>
-      <c r="DKA43" s="2"/>
-      <c r="DKQ43" s="2"/>
-      <c r="DLG43" s="2"/>
-      <c r="DLW43" s="2"/>
-      <c r="DMM43" s="2"/>
-      <c r="DNC43" s="2"/>
-      <c r="DNS43" s="2"/>
-      <c r="DOI43" s="2"/>
-      <c r="DOY43" s="2"/>
-      <c r="DPO43" s="2"/>
-      <c r="DQE43" s="2"/>
-      <c r="DQU43" s="2"/>
-      <c r="DRK43" s="2"/>
-      <c r="DSA43" s="2"/>
-      <c r="DSQ43" s="2"/>
-      <c r="DTG43" s="2"/>
-      <c r="DTW43" s="2"/>
-      <c r="DUM43" s="2"/>
-      <c r="DVC43" s="2"/>
-      <c r="DVS43" s="2"/>
-      <c r="DWI43" s="2"/>
-      <c r="DWY43" s="2"/>
-      <c r="DXO43" s="2"/>
-      <c r="DYE43" s="2"/>
-      <c r="DYU43" s="2"/>
-      <c r="DZK43" s="2"/>
-      <c r="EAA43" s="2"/>
-      <c r="EAQ43" s="2"/>
-      <c r="EBG43" s="2"/>
-      <c r="EBW43" s="2"/>
-      <c r="ECM43" s="2"/>
-      <c r="EDC43" s="2"/>
-      <c r="EDS43" s="2"/>
-      <c r="EEI43" s="2"/>
-      <c r="EEY43" s="2"/>
-      <c r="EFO43" s="2"/>
-      <c r="EGE43" s="2"/>
-      <c r="EGU43" s="2"/>
-      <c r="EHK43" s="2"/>
-      <c r="EIA43" s="2"/>
-      <c r="EIQ43" s="2"/>
-      <c r="EJG43" s="2"/>
-      <c r="EJW43" s="2"/>
-      <c r="EKM43" s="2"/>
-      <c r="ELC43" s="2"/>
-      <c r="ELS43" s="2"/>
-      <c r="EMI43" s="2"/>
-      <c r="EMY43" s="2"/>
-      <c r="ENO43" s="2"/>
-      <c r="EOE43" s="2"/>
-      <c r="EOU43" s="2"/>
-      <c r="EPK43" s="2"/>
-      <c r="EQA43" s="2"/>
-      <c r="EQQ43" s="2"/>
-      <c r="ERG43" s="2"/>
-      <c r="ERW43" s="2"/>
-      <c r="ESM43" s="2"/>
-      <c r="ETC43" s="2"/>
-      <c r="ETS43" s="2"/>
-      <c r="EUI43" s="2"/>
-      <c r="EUY43" s="2"/>
-      <c r="EVO43" s="2"/>
-      <c r="EWE43" s="2"/>
-      <c r="EWU43" s="2"/>
-      <c r="EXK43" s="2"/>
-      <c r="EYA43" s="2"/>
-      <c r="EYQ43" s="2"/>
-      <c r="EZG43" s="2"/>
-      <c r="EZW43" s="2"/>
-      <c r="FAM43" s="2"/>
-      <c r="FBC43" s="2"/>
-      <c r="FBS43" s="2"/>
-      <c r="FCI43" s="2"/>
-      <c r="FCY43" s="2"/>
-      <c r="FDO43" s="2"/>
-      <c r="FEE43" s="2"/>
-      <c r="FEU43" s="2"/>
-      <c r="FFK43" s="2"/>
-      <c r="FGA43" s="2"/>
-      <c r="FGQ43" s="2"/>
-      <c r="FHG43" s="2"/>
-      <c r="FHW43" s="2"/>
-      <c r="FIM43" s="2"/>
-      <c r="FJC43" s="2"/>
-      <c r="FJS43" s="2"/>
-      <c r="FKI43" s="2"/>
-      <c r="FKY43" s="2"/>
-      <c r="FLO43" s="2"/>
-      <c r="FME43" s="2"/>
-      <c r="FMU43" s="2"/>
-      <c r="FNK43" s="2"/>
-      <c r="FOA43" s="2"/>
-      <c r="FOQ43" s="2"/>
-      <c r="FPG43" s="2"/>
-      <c r="FPW43" s="2"/>
-      <c r="FQM43" s="2"/>
-      <c r="FRC43" s="2"/>
-      <c r="FRS43" s="2"/>
-      <c r="FSI43" s="2"/>
-      <c r="FSY43" s="2"/>
-      <c r="FTO43" s="2"/>
-      <c r="FUE43" s="2"/>
-      <c r="FUU43" s="2"/>
-      <c r="FVK43" s="2"/>
-      <c r="FWA43" s="2"/>
-      <c r="FWQ43" s="2"/>
-      <c r="FXG43" s="2"/>
-      <c r="FXW43" s="2"/>
-      <c r="FYM43" s="2"/>
-      <c r="FZC43" s="2"/>
-      <c r="FZS43" s="2"/>
-      <c r="GAI43" s="2"/>
-      <c r="GAY43" s="2"/>
-      <c r="GBO43" s="2"/>
-      <c r="GCE43" s="2"/>
-      <c r="GCU43" s="2"/>
-      <c r="GDK43" s="2"/>
-      <c r="GEA43" s="2"/>
-      <c r="GEQ43" s="2"/>
-      <c r="GFG43" s="2"/>
-      <c r="GFW43" s="2"/>
-      <c r="GGM43" s="2"/>
-      <c r="GHC43" s="2"/>
-      <c r="GHS43" s="2"/>
-      <c r="GII43" s="2"/>
-      <c r="GIY43" s="2"/>
-      <c r="GJO43" s="2"/>
-      <c r="GKE43" s="2"/>
-      <c r="GKU43" s="2"/>
-      <c r="GLK43" s="2"/>
-      <c r="GMA43" s="2"/>
-      <c r="GMQ43" s="2"/>
-      <c r="GNG43" s="2"/>
-      <c r="GNW43" s="2"/>
-      <c r="GOM43" s="2"/>
-      <c r="GPC43" s="2"/>
-      <c r="GPS43" s="2"/>
-      <c r="GQI43" s="2"/>
-      <c r="GQY43" s="2"/>
-      <c r="GRO43" s="2"/>
-      <c r="GSE43" s="2"/>
-      <c r="GSU43" s="2"/>
-      <c r="GTK43" s="2"/>
-      <c r="GUA43" s="2"/>
-      <c r="GUQ43" s="2"/>
-      <c r="GVG43" s="2"/>
-      <c r="GVW43" s="2"/>
-      <c r="GWM43" s="2"/>
-      <c r="GXC43" s="2"/>
-      <c r="GXS43" s="2"/>
-      <c r="GYI43" s="2"/>
-      <c r="GYY43" s="2"/>
-      <c r="GZO43" s="2"/>
-      <c r="HAE43" s="2"/>
-      <c r="HAU43" s="2"/>
-      <c r="HBK43" s="2"/>
-      <c r="HCA43" s="2"/>
-      <c r="HCQ43" s="2"/>
-      <c r="HDG43" s="2"/>
-      <c r="HDW43" s="2"/>
-      <c r="HEM43" s="2"/>
-      <c r="HFC43" s="2"/>
-      <c r="HFS43" s="2"/>
-      <c r="HGI43" s="2"/>
-      <c r="HGY43" s="2"/>
-      <c r="HHO43" s="2"/>
-      <c r="HIE43" s="2"/>
-      <c r="HIU43" s="2"/>
-      <c r="HJK43" s="2"/>
-      <c r="HKA43" s="2"/>
-      <c r="HKQ43" s="2"/>
-      <c r="HLG43" s="2"/>
-      <c r="HLW43" s="2"/>
-      <c r="HMM43" s="2"/>
-      <c r="HNC43" s="2"/>
-      <c r="HNS43" s="2"/>
-      <c r="HOI43" s="2"/>
-      <c r="HOY43" s="2"/>
-      <c r="HPO43" s="2"/>
-      <c r="HQE43" s="2"/>
-      <c r="HQU43" s="2"/>
-      <c r="HRK43" s="2"/>
-      <c r="HSA43" s="2"/>
-      <c r="HSQ43" s="2"/>
-      <c r="HTG43" s="2"/>
-      <c r="HTW43" s="2"/>
-      <c r="HUM43" s="2"/>
-      <c r="HVC43" s="2"/>
-      <c r="HVS43" s="2"/>
-      <c r="HWI43" s="2"/>
-      <c r="HWY43" s="2"/>
-      <c r="HXO43" s="2"/>
-      <c r="HYE43" s="2"/>
-      <c r="HYU43" s="2"/>
-      <c r="HZK43" s="2"/>
-      <c r="IAA43" s="2"/>
-      <c r="IAQ43" s="2"/>
-      <c r="IBG43" s="2"/>
-      <c r="IBW43" s="2"/>
-      <c r="ICM43" s="2"/>
-      <c r="IDC43" s="2"/>
-      <c r="IDS43" s="2"/>
-      <c r="IEI43" s="2"/>
-      <c r="IEY43" s="2"/>
-      <c r="IFO43" s="2"/>
-      <c r="IGE43" s="2"/>
-      <c r="IGU43" s="2"/>
-      <c r="IHK43" s="2"/>
-      <c r="IIA43" s="2"/>
-      <c r="IIQ43" s="2"/>
-      <c r="IJG43" s="2"/>
-      <c r="IJW43" s="2"/>
-      <c r="IKM43" s="2"/>
-      <c r="ILC43" s="2"/>
-      <c r="ILS43" s="2"/>
-      <c r="IMI43" s="2"/>
-      <c r="IMY43" s="2"/>
-      <c r="INO43" s="2"/>
-      <c r="IOE43" s="2"/>
-      <c r="IOU43" s="2"/>
-      <c r="IPK43" s="2"/>
-      <c r="IQA43" s="2"/>
-      <c r="IQQ43" s="2"/>
-      <c r="IRG43" s="2"/>
-      <c r="IRW43" s="2"/>
-      <c r="ISM43" s="2"/>
-      <c r="ITC43" s="2"/>
-      <c r="ITS43" s="2"/>
-      <c r="IUI43" s="2"/>
-      <c r="IUY43" s="2"/>
-      <c r="IVO43" s="2"/>
-      <c r="IWE43" s="2"/>
-      <c r="IWU43" s="2"/>
-      <c r="IXK43" s="2"/>
-      <c r="IYA43" s="2"/>
-      <c r="IYQ43" s="2"/>
-      <c r="IZG43" s="2"/>
-      <c r="IZW43" s="2"/>
-      <c r="JAM43" s="2"/>
-      <c r="JBC43" s="2"/>
-      <c r="JBS43" s="2"/>
-      <c r="JCI43" s="2"/>
-      <c r="JCY43" s="2"/>
-      <c r="JDO43" s="2"/>
-      <c r="JEE43" s="2"/>
-      <c r="JEU43" s="2"/>
-      <c r="JFK43" s="2"/>
-      <c r="JGA43" s="2"/>
-      <c r="JGQ43" s="2"/>
-      <c r="JHG43" s="2"/>
-      <c r="JHW43" s="2"/>
-      <c r="JIM43" s="2"/>
-      <c r="JJC43" s="2"/>
-      <c r="JJS43" s="2"/>
-      <c r="JKI43" s="2"/>
-      <c r="JKY43" s="2"/>
-      <c r="JLO43" s="2"/>
-      <c r="JME43" s="2"/>
-      <c r="JMU43" s="2"/>
-      <c r="JNK43" s="2"/>
-      <c r="JOA43" s="2"/>
-      <c r="JOQ43" s="2"/>
-      <c r="JPG43" s="2"/>
-      <c r="JPW43" s="2"/>
-      <c r="JQM43" s="2"/>
-      <c r="JRC43" s="2"/>
-      <c r="JRS43" s="2"/>
-      <c r="JSI43" s="2"/>
-      <c r="JSY43" s="2"/>
-      <c r="JTO43" s="2"/>
-      <c r="JUE43" s="2"/>
-      <c r="JUU43" s="2"/>
-      <c r="JVK43" s="2"/>
-      <c r="JWA43" s="2"/>
-      <c r="JWQ43" s="2"/>
-      <c r="JXG43" s="2"/>
-      <c r="JXW43" s="2"/>
-      <c r="JYM43" s="2"/>
-      <c r="JZC43" s="2"/>
-      <c r="JZS43" s="2"/>
-      <c r="KAI43" s="2"/>
-      <c r="KAY43" s="2"/>
-      <c r="KBO43" s="2"/>
-      <c r="KCE43" s="2"/>
-      <c r="KCU43" s="2"/>
-      <c r="KDK43" s="2"/>
-      <c r="KEA43" s="2"/>
-      <c r="KEQ43" s="2"/>
-      <c r="KFG43" s="2"/>
-      <c r="KFW43" s="2"/>
-      <c r="KGM43" s="2"/>
-      <c r="KHC43" s="2"/>
-      <c r="KHS43" s="2"/>
-      <c r="KII43" s="2"/>
-      <c r="KIY43" s="2"/>
-      <c r="KJO43" s="2"/>
-      <c r="KKE43" s="2"/>
-      <c r="KKU43" s="2"/>
-      <c r="KLK43" s="2"/>
-      <c r="KMA43" s="2"/>
-      <c r="KMQ43" s="2"/>
-      <c r="KNG43" s="2"/>
-      <c r="KNW43" s="2"/>
-      <c r="KOM43" s="2"/>
-      <c r="KPC43" s="2"/>
-      <c r="KPS43" s="2"/>
-      <c r="KQI43" s="2"/>
-      <c r="KQY43" s="2"/>
-      <c r="KRO43" s="2"/>
-      <c r="KSE43" s="2"/>
-      <c r="KSU43" s="2"/>
-      <c r="KTK43" s="2"/>
-      <c r="KUA43" s="2"/>
-      <c r="KUQ43" s="2"/>
-      <c r="KVG43" s="2"/>
-      <c r="KVW43" s="2"/>
-      <c r="KWM43" s="2"/>
-      <c r="KXC43" s="2"/>
-      <c r="KXS43" s="2"/>
-      <c r="KYI43" s="2"/>
-      <c r="KYY43" s="2"/>
-      <c r="KZO43" s="2"/>
-      <c r="LAE43" s="2"/>
-      <c r="LAU43" s="2"/>
-      <c r="LBK43" s="2"/>
-      <c r="LCA43" s="2"/>
-      <c r="LCQ43" s="2"/>
-      <c r="LDG43" s="2"/>
-      <c r="LDW43" s="2"/>
-      <c r="LEM43" s="2"/>
-      <c r="LFC43" s="2"/>
-      <c r="LFS43" s="2"/>
-      <c r="LGI43" s="2"/>
-      <c r="LGY43" s="2"/>
-      <c r="LHO43" s="2"/>
-      <c r="LIE43" s="2"/>
-      <c r="LIU43" s="2"/>
-      <c r="LJK43" s="2"/>
-      <c r="LKA43" s="2"/>
-      <c r="LKQ43" s="2"/>
-      <c r="LLG43" s="2"/>
-      <c r="LLW43" s="2"/>
-      <c r="LMM43" s="2"/>
-      <c r="LNC43" s="2"/>
-      <c r="LNS43" s="2"/>
-      <c r="LOI43" s="2"/>
-      <c r="LOY43" s="2"/>
-      <c r="LPO43" s="2"/>
-      <c r="LQE43" s="2"/>
-      <c r="LQU43" s="2"/>
-      <c r="LRK43" s="2"/>
-      <c r="LSA43" s="2"/>
-      <c r="LSQ43" s="2"/>
-      <c r="LTG43" s="2"/>
-      <c r="LTW43" s="2"/>
-      <c r="LUM43" s="2"/>
-      <c r="LVC43" s="2"/>
-      <c r="LVS43" s="2"/>
-      <c r="LWI43" s="2"/>
-      <c r="LWY43" s="2"/>
-      <c r="LXO43" s="2"/>
-      <c r="LYE43" s="2"/>
-      <c r="LYU43" s="2"/>
-      <c r="LZK43" s="2"/>
-      <c r="MAA43" s="2"/>
-      <c r="MAQ43" s="2"/>
-      <c r="MBG43" s="2"/>
-      <c r="MBW43" s="2"/>
-      <c r="MCM43" s="2"/>
-      <c r="MDC43" s="2"/>
-      <c r="MDS43" s="2"/>
-      <c r="MEI43" s="2"/>
-      <c r="MEY43" s="2"/>
-      <c r="MFO43" s="2"/>
-      <c r="MGE43" s="2"/>
-      <c r="MGU43" s="2"/>
-      <c r="MHK43" s="2"/>
-      <c r="MIA43" s="2"/>
-      <c r="MIQ43" s="2"/>
-      <c r="MJG43" s="2"/>
-      <c r="MJW43" s="2"/>
-      <c r="MKM43" s="2"/>
-      <c r="MLC43" s="2"/>
-      <c r="MLS43" s="2"/>
-      <c r="MMI43" s="2"/>
-      <c r="MMY43" s="2"/>
-      <c r="MNO43" s="2"/>
-      <c r="MOE43" s="2"/>
-      <c r="MOU43" s="2"/>
-      <c r="MPK43" s="2"/>
-      <c r="MQA43" s="2"/>
-      <c r="MQQ43" s="2"/>
-      <c r="MRG43" s="2"/>
-      <c r="MRW43" s="2"/>
-      <c r="MSM43" s="2"/>
-      <c r="MTC43" s="2"/>
-      <c r="MTS43" s="2"/>
-      <c r="MUI43" s="2"/>
-      <c r="MUY43" s="2"/>
-      <c r="MVO43" s="2"/>
-      <c r="MWE43" s="2"/>
-      <c r="MWU43" s="2"/>
-      <c r="MXK43" s="2"/>
-      <c r="MYA43" s="2"/>
-      <c r="MYQ43" s="2"/>
-      <c r="MZG43" s="2"/>
-      <c r="MZW43" s="2"/>
-      <c r="NAM43" s="2"/>
-      <c r="NBC43" s="2"/>
-      <c r="NBS43" s="2"/>
-      <c r="NCI43" s="2"/>
-      <c r="NCY43" s="2"/>
-      <c r="NDO43" s="2"/>
-      <c r="NEE43" s="2"/>
-      <c r="NEU43" s="2"/>
-      <c r="NFK43" s="2"/>
-      <c r="NGA43" s="2"/>
-      <c r="NGQ43" s="2"/>
-      <c r="NHG43" s="2"/>
-      <c r="NHW43" s="2"/>
-      <c r="NIM43" s="2"/>
-      <c r="NJC43" s="2"/>
-      <c r="NJS43" s="2"/>
-      <c r="NKI43" s="2"/>
-      <c r="NKY43" s="2"/>
-      <c r="NLO43" s="2"/>
-      <c r="NME43" s="2"/>
-      <c r="NMU43" s="2"/>
-      <c r="NNK43" s="2"/>
-      <c r="NOA43" s="2"/>
-      <c r="NOQ43" s="2"/>
-      <c r="NPG43" s="2"/>
-      <c r="NPW43" s="2"/>
-      <c r="NQM43" s="2"/>
-      <c r="NRC43" s="2"/>
-      <c r="NRS43" s="2"/>
-      <c r="NSI43" s="2"/>
-      <c r="NSY43" s="2"/>
-      <c r="NTO43" s="2"/>
-      <c r="NUE43" s="2"/>
-      <c r="NUU43" s="2"/>
-      <c r="NVK43" s="2"/>
-      <c r="NWA43" s="2"/>
-      <c r="NWQ43" s="2"/>
-      <c r="NXG43" s="2"/>
-      <c r="NXW43" s="2"/>
-      <c r="NYM43" s="2"/>
-      <c r="NZC43" s="2"/>
-      <c r="NZS43" s="2"/>
-      <c r="OAI43" s="2"/>
-      <c r="OAY43" s="2"/>
-      <c r="OBO43" s="2"/>
-      <c r="OCE43" s="2"/>
-      <c r="OCU43" s="2"/>
-      <c r="ODK43" s="2"/>
-      <c r="OEA43" s="2"/>
-      <c r="OEQ43" s="2"/>
-      <c r="OFG43" s="2"/>
-      <c r="OFW43" s="2"/>
-      <c r="OGM43" s="2"/>
-      <c r="OHC43" s="2"/>
-      <c r="OHS43" s="2"/>
-      <c r="OII43" s="2"/>
-      <c r="OIY43" s="2"/>
-      <c r="OJO43" s="2"/>
-      <c r="OKE43" s="2"/>
-      <c r="OKU43" s="2"/>
-      <c r="OLK43" s="2"/>
-      <c r="OMA43" s="2"/>
-      <c r="OMQ43" s="2"/>
-      <c r="ONG43" s="2"/>
-      <c r="ONW43" s="2"/>
-      <c r="OOM43" s="2"/>
-      <c r="OPC43" s="2"/>
-      <c r="OPS43" s="2"/>
-      <c r="OQI43" s="2"/>
-      <c r="OQY43" s="2"/>
-      <c r="ORO43" s="2"/>
-      <c r="OSE43" s="2"/>
-      <c r="OSU43" s="2"/>
-      <c r="OTK43" s="2"/>
-      <c r="OUA43" s="2"/>
-      <c r="OUQ43" s="2"/>
-      <c r="OVG43" s="2"/>
-      <c r="OVW43" s="2"/>
-      <c r="OWM43" s="2"/>
-      <c r="OXC43" s="2"/>
-      <c r="OXS43" s="2"/>
-      <c r="OYI43" s="2"/>
-      <c r="OYY43" s="2"/>
-      <c r="OZO43" s="2"/>
-      <c r="PAE43" s="2"/>
-      <c r="PAU43" s="2"/>
-      <c r="PBK43" s="2"/>
-      <c r="PCA43" s="2"/>
-      <c r="PCQ43" s="2"/>
-      <c r="PDG43" s="2"/>
-      <c r="PDW43" s="2"/>
-      <c r="PEM43" s="2"/>
-      <c r="PFC43" s="2"/>
-      <c r="PFS43" s="2"/>
-      <c r="PGI43" s="2"/>
-      <c r="PGY43" s="2"/>
-      <c r="PHO43" s="2"/>
-      <c r="PIE43" s="2"/>
-      <c r="PIU43" s="2"/>
-      <c r="PJK43" s="2"/>
-      <c r="PKA43" s="2"/>
-      <c r="PKQ43" s="2"/>
-      <c r="PLG43" s="2"/>
-      <c r="PLW43" s="2"/>
-      <c r="PMM43" s="2"/>
-      <c r="PNC43" s="2"/>
-      <c r="PNS43" s="2"/>
-      <c r="POI43" s="2"/>
-      <c r="POY43" s="2"/>
-      <c r="PPO43" s="2"/>
-      <c r="PQE43" s="2"/>
-      <c r="PQU43" s="2"/>
-      <c r="PRK43" s="2"/>
-      <c r="PSA43" s="2"/>
-      <c r="PSQ43" s="2"/>
-      <c r="PTG43" s="2"/>
-      <c r="PTW43" s="2"/>
-      <c r="PUM43" s="2"/>
-      <c r="PVC43" s="2"/>
-      <c r="PVS43" s="2"/>
-      <c r="PWI43" s="2"/>
-      <c r="PWY43" s="2"/>
-      <c r="PXO43" s="2"/>
-      <c r="PYE43" s="2"/>
-      <c r="PYU43" s="2"/>
-      <c r="PZK43" s="2"/>
-      <c r="QAA43" s="2"/>
-      <c r="QAQ43" s="2"/>
-      <c r="QBG43" s="2"/>
-      <c r="QBW43" s="2"/>
-      <c r="QCM43" s="2"/>
-      <c r="QDC43" s="2"/>
-      <c r="QDS43" s="2"/>
-      <c r="QEI43" s="2"/>
-      <c r="QEY43" s="2"/>
-      <c r="QFO43" s="2"/>
-      <c r="QGE43" s="2"/>
-      <c r="QGU43" s="2"/>
-      <c r="QHK43" s="2"/>
-      <c r="QIA43" s="2"/>
-      <c r="QIQ43" s="2"/>
-      <c r="QJG43" s="2"/>
-      <c r="QJW43" s="2"/>
-      <c r="QKM43" s="2"/>
-      <c r="QLC43" s="2"/>
-      <c r="QLS43" s="2"/>
-      <c r="QMI43" s="2"/>
-      <c r="QMY43" s="2"/>
-      <c r="QNO43" s="2"/>
-      <c r="QOE43" s="2"/>
-      <c r="QOU43" s="2"/>
-      <c r="QPK43" s="2"/>
-      <c r="QQA43" s="2"/>
-      <c r="QQQ43" s="2"/>
-      <c r="QRG43" s="2"/>
-      <c r="QRW43" s="2"/>
-      <c r="QSM43" s="2"/>
-      <c r="QTC43" s="2"/>
-      <c r="QTS43" s="2"/>
-      <c r="QUI43" s="2"/>
-      <c r="QUY43" s="2"/>
-      <c r="QVO43" s="2"/>
-      <c r="QWE43" s="2"/>
-      <c r="QWU43" s="2"/>
-      <c r="QXK43" s="2"/>
-      <c r="QYA43" s="2"/>
-      <c r="QYQ43" s="2"/>
-      <c r="QZG43" s="2"/>
-      <c r="QZW43" s="2"/>
-      <c r="RAM43" s="2"/>
-      <c r="RBC43" s="2"/>
-      <c r="RBS43" s="2"/>
-      <c r="RCI43" s="2"/>
-      <c r="RCY43" s="2"/>
-      <c r="RDO43" s="2"/>
-      <c r="REE43" s="2"/>
-      <c r="REU43" s="2"/>
-      <c r="RFK43" s="2"/>
-      <c r="RGA43" s="2"/>
-      <c r="RGQ43" s="2"/>
-      <c r="RHG43" s="2"/>
-      <c r="RHW43" s="2"/>
-      <c r="RIM43" s="2"/>
-      <c r="RJC43" s="2"/>
-      <c r="RJS43" s="2"/>
-      <c r="RKI43" s="2"/>
-      <c r="RKY43" s="2"/>
-      <c r="RLO43" s="2"/>
-      <c r="RME43" s="2"/>
-      <c r="RMU43" s="2"/>
-      <c r="RNK43" s="2"/>
-      <c r="ROA43" s="2"/>
-      <c r="ROQ43" s="2"/>
-      <c r="RPG43" s="2"/>
-      <c r="RPW43" s="2"/>
-      <c r="RQM43" s="2"/>
-      <c r="RRC43" s="2"/>
-      <c r="RRS43" s="2"/>
-      <c r="RSI43" s="2"/>
-      <c r="RSY43" s="2"/>
-      <c r="RTO43" s="2"/>
-      <c r="RUE43" s="2"/>
-      <c r="RUU43" s="2"/>
-      <c r="RVK43" s="2"/>
-      <c r="RWA43" s="2"/>
-      <c r="RWQ43" s="2"/>
-      <c r="RXG43" s="2"/>
-      <c r="RXW43" s="2"/>
-      <c r="RYM43" s="2"/>
-      <c r="RZC43" s="2"/>
-      <c r="RZS43" s="2"/>
-      <c r="SAI43" s="2"/>
-      <c r="SAY43" s="2"/>
-      <c r="SBO43" s="2"/>
-      <c r="SCE43" s="2"/>
-      <c r="SCU43" s="2"/>
-      <c r="SDK43" s="2"/>
-      <c r="SEA43" s="2"/>
-      <c r="SEQ43" s="2"/>
-      <c r="SFG43" s="2"/>
-      <c r="SFW43" s="2"/>
-      <c r="SGM43" s="2"/>
-      <c r="SHC43" s="2"/>
-      <c r="SHS43" s="2"/>
-      <c r="SII43" s="2"/>
-      <c r="SIY43" s="2"/>
-      <c r="SJO43" s="2"/>
-      <c r="SKE43" s="2"/>
-      <c r="SKU43" s="2"/>
-      <c r="SLK43" s="2"/>
-      <c r="SMA43" s="2"/>
-      <c r="SMQ43" s="2"/>
-      <c r="SNG43" s="2"/>
-      <c r="SNW43" s="2"/>
-      <c r="SOM43" s="2"/>
-      <c r="SPC43" s="2"/>
-      <c r="SPS43" s="2"/>
-      <c r="SQI43" s="2"/>
-      <c r="SQY43" s="2"/>
-      <c r="SRO43" s="2"/>
-      <c r="SSE43" s="2"/>
-      <c r="SSU43" s="2"/>
-      <c r="STK43" s="2"/>
-      <c r="SUA43" s="2"/>
-      <c r="SUQ43" s="2"/>
-      <c r="SVG43" s="2"/>
-      <c r="SVW43" s="2"/>
-      <c r="SWM43" s="2"/>
-      <c r="SXC43" s="2"/>
-      <c r="SXS43" s="2"/>
-      <c r="SYI43" s="2"/>
-      <c r="SYY43" s="2"/>
-      <c r="SZO43" s="2"/>
-      <c r="TAE43" s="2"/>
-      <c r="TAU43" s="2"/>
-      <c r="TBK43" s="2"/>
-      <c r="TCA43" s="2"/>
-      <c r="TCQ43" s="2"/>
-      <c r="TDG43" s="2"/>
-      <c r="TDW43" s="2"/>
-      <c r="TEM43" s="2"/>
-      <c r="TFC43" s="2"/>
-      <c r="TFS43" s="2"/>
-      <c r="TGI43" s="2"/>
-      <c r="TGY43" s="2"/>
-      <c r="THO43" s="2"/>
-      <c r="TIE43" s="2"/>
-      <c r="TIU43" s="2"/>
-      <c r="TJK43" s="2"/>
-      <c r="TKA43" s="2"/>
-      <c r="TKQ43" s="2"/>
-      <c r="TLG43" s="2"/>
-      <c r="TLW43" s="2"/>
-      <c r="TMM43" s="2"/>
-      <c r="TNC43" s="2"/>
-      <c r="TNS43" s="2"/>
-      <c r="TOI43" s="2"/>
-      <c r="TOY43" s="2"/>
-      <c r="TPO43" s="2"/>
-      <c r="TQE43" s="2"/>
-      <c r="TQU43" s="2"/>
-      <c r="TRK43" s="2"/>
-      <c r="TSA43" s="2"/>
-      <c r="TSQ43" s="2"/>
-      <c r="TTG43" s="2"/>
-      <c r="TTW43" s="2"/>
-      <c r="TUM43" s="2"/>
-      <c r="TVC43" s="2"/>
-      <c r="TVS43" s="2"/>
-      <c r="TWI43" s="2"/>
-      <c r="TWY43" s="2"/>
-      <c r="TXO43" s="2"/>
-      <c r="TYE43" s="2"/>
-      <c r="TYU43" s="2"/>
-      <c r="TZK43" s="2"/>
-      <c r="UAA43" s="2"/>
-      <c r="UAQ43" s="2"/>
-      <c r="UBG43" s="2"/>
-      <c r="UBW43" s="2"/>
-      <c r="UCM43" s="2"/>
-      <c r="UDC43" s="2"/>
-      <c r="UDS43" s="2"/>
-      <c r="UEI43" s="2"/>
-      <c r="UEY43" s="2"/>
-      <c r="UFO43" s="2"/>
-      <c r="UGE43" s="2"/>
-      <c r="UGU43" s="2"/>
-      <c r="UHK43" s="2"/>
-      <c r="UIA43" s="2"/>
-      <c r="UIQ43" s="2"/>
-      <c r="UJG43" s="2"/>
-      <c r="UJW43" s="2"/>
-      <c r="UKM43" s="2"/>
-      <c r="ULC43" s="2"/>
-      <c r="ULS43" s="2"/>
-      <c r="UMI43" s="2"/>
-      <c r="UMY43" s="2"/>
-      <c r="UNO43" s="2"/>
-      <c r="UOE43" s="2"/>
-      <c r="UOU43" s="2"/>
-      <c r="UPK43" s="2"/>
-      <c r="UQA43" s="2"/>
-      <c r="UQQ43" s="2"/>
-      <c r="URG43" s="2"/>
-      <c r="URW43" s="2"/>
-      <c r="USM43" s="2"/>
-      <c r="UTC43" s="2"/>
-      <c r="UTS43" s="2"/>
-      <c r="UUI43" s="2"/>
-      <c r="UUY43" s="2"/>
-      <c r="UVO43" s="2"/>
-      <c r="UWE43" s="2"/>
-      <c r="UWU43" s="2"/>
-      <c r="UXK43" s="2"/>
-      <c r="UYA43" s="2"/>
-      <c r="UYQ43" s="2"/>
-      <c r="UZG43" s="2"/>
-      <c r="UZW43" s="2"/>
-      <c r="VAM43" s="2"/>
-      <c r="VBC43" s="2"/>
-      <c r="VBS43" s="2"/>
-      <c r="VCI43" s="2"/>
-      <c r="VCY43" s="2"/>
-      <c r="VDO43" s="2"/>
-      <c r="VEE43" s="2"/>
-      <c r="VEU43" s="2"/>
-      <c r="VFK43" s="2"/>
-      <c r="VGA43" s="2"/>
-      <c r="VGQ43" s="2"/>
-      <c r="VHG43" s="2"/>
-      <c r="VHW43" s="2"/>
-      <c r="VIM43" s="2"/>
-      <c r="VJC43" s="2"/>
-      <c r="VJS43" s="2"/>
-      <c r="VKI43" s="2"/>
-      <c r="VKY43" s="2"/>
-      <c r="VLO43" s="2"/>
-      <c r="VME43" s="2"/>
-      <c r="VMU43" s="2"/>
-      <c r="VNK43" s="2"/>
-      <c r="VOA43" s="2"/>
-      <c r="VOQ43" s="2"/>
-      <c r="VPG43" s="2"/>
-      <c r="VPW43" s="2"/>
-      <c r="VQM43" s="2"/>
-      <c r="VRC43" s="2"/>
-      <c r="VRS43" s="2"/>
-      <c r="VSI43" s="2"/>
-      <c r="VSY43" s="2"/>
-      <c r="VTO43" s="2"/>
-      <c r="VUE43" s="2"/>
-      <c r="VUU43" s="2"/>
-      <c r="VVK43" s="2"/>
-      <c r="VWA43" s="2"/>
-      <c r="VWQ43" s="2"/>
-      <c r="VXG43" s="2"/>
-      <c r="VXW43" s="2"/>
-      <c r="VYM43" s="2"/>
-      <c r="VZC43" s="2"/>
-      <c r="VZS43" s="2"/>
-      <c r="WAI43" s="2"/>
-      <c r="WAY43" s="2"/>
-      <c r="WBO43" s="2"/>
-      <c r="WCE43" s="2"/>
-      <c r="WCU43" s="2"/>
-      <c r="WDK43" s="2"/>
-      <c r="WEA43" s="2"/>
-      <c r="WEQ43" s="2"/>
-      <c r="WFG43" s="2"/>
-      <c r="WFW43" s="2"/>
-      <c r="WGM43" s="2"/>
-      <c r="WHC43" s="2"/>
-      <c r="WHS43" s="2"/>
-      <c r="WII43" s="2"/>
-      <c r="WIY43" s="2"/>
-      <c r="WJO43" s="2"/>
-      <c r="WKE43" s="2"/>
-      <c r="WKU43" s="2"/>
-      <c r="WLK43" s="2"/>
-      <c r="WMA43" s="2"/>
-      <c r="WMQ43" s="2"/>
-      <c r="WNG43" s="2"/>
-      <c r="WNW43" s="2"/>
-      <c r="WOM43" s="2"/>
-      <c r="WPC43" s="2"/>
-      <c r="WPS43" s="2"/>
-      <c r="WQI43" s="2"/>
-      <c r="WQY43" s="2"/>
-      <c r="WRO43" s="2"/>
-      <c r="WSE43" s="2"/>
-      <c r="WSU43" s="2"/>
-      <c r="WTK43" s="2"/>
-      <c r="WUA43" s="2"/>
-      <c r="WUQ43" s="2"/>
-      <c r="WVG43" s="2"/>
-      <c r="WVW43" s="2"/>
-      <c r="WWM43" s="2"/>
-      <c r="WXC43" s="2"/>
-      <c r="WXS43" s="2"/>
-      <c r="WYI43" s="2"/>
-      <c r="WYY43" s="2"/>
-      <c r="WZO43" s="2"/>
-      <c r="XAE43" s="2"/>
-      <c r="XAU43" s="2"/>
-      <c r="XBK43" s="2"/>
-      <c r="XCA43" s="2"/>
-      <c r="XCQ43" s="2"/>
-      <c r="XDG43" s="2"/>
-      <c r="XDW43" s="2"/>
-      <c r="XEM43" s="2"/>
-      <c r="XFC43" s="2"/>
+      <c r="A43">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43">
+        <v>0.20485999999999999</v>
+      </c>
+      <c r="D43">
+        <v>29040</v>
+      </c>
+      <c r="F43">
+        <v>-700</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="44" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C44">
-        <v>2.299E-2</v>
+        <v>0.21135000000000001</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>29062</v>
+      </c>
+      <c r="F44">
+        <v>-700</v>
       </c>
       <c r="G44" t="s">
         <v>25</v>
@@ -5872,25 +4903,1049 @@
       <c r="L44" t="s">
         <v>25</v>
       </c>
-      <c r="P44" t="s">
-        <v>25</v>
-      </c>
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
+      <c r="O45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AU45" s="2"/>
+      <c r="BK45" s="2"/>
+      <c r="CA45" s="2"/>
+      <c r="CQ45" s="2"/>
+      <c r="DG45" s="2"/>
+      <c r="DW45" s="2"/>
+      <c r="EM45" s="2"/>
+      <c r="FC45" s="2"/>
+      <c r="FS45" s="2"/>
+      <c r="GI45" s="2"/>
+      <c r="GY45" s="2"/>
+      <c r="HO45" s="2"/>
+      <c r="IE45" s="2"/>
+      <c r="IU45" s="2"/>
+      <c r="JK45" s="2"/>
+      <c r="KA45" s="2"/>
+      <c r="KQ45" s="2"/>
+      <c r="LG45" s="2"/>
+      <c r="LW45" s="2"/>
+      <c r="MM45" s="2"/>
+      <c r="NC45" s="2"/>
+      <c r="NS45" s="2"/>
+      <c r="OI45" s="2"/>
+      <c r="OY45" s="2"/>
+      <c r="PO45" s="2"/>
+      <c r="QE45" s="2"/>
+      <c r="QU45" s="2"/>
+      <c r="RK45" s="2"/>
+      <c r="SA45" s="2"/>
+      <c r="SQ45" s="2"/>
+      <c r="TG45" s="2"/>
+      <c r="TW45" s="2"/>
+      <c r="UM45" s="2"/>
+      <c r="VC45" s="2"/>
+      <c r="VS45" s="2"/>
+      <c r="WI45" s="2"/>
+      <c r="WY45" s="2"/>
+      <c r="XO45" s="2"/>
+      <c r="YE45" s="2"/>
+      <c r="YU45" s="2"/>
+      <c r="ZK45" s="2"/>
+      <c r="AAA45" s="2"/>
+      <c r="AAQ45" s="2"/>
+      <c r="ABG45" s="2"/>
+      <c r="ABW45" s="2"/>
+      <c r="ACM45" s="2"/>
+      <c r="ADC45" s="2"/>
+      <c r="ADS45" s="2"/>
+      <c r="AEI45" s="2"/>
+      <c r="AEY45" s="2"/>
+      <c r="AFO45" s="2"/>
+      <c r="AGE45" s="2"/>
+      <c r="AGU45" s="2"/>
+      <c r="AHK45" s="2"/>
+      <c r="AIA45" s="2"/>
+      <c r="AIQ45" s="2"/>
+      <c r="AJG45" s="2"/>
+      <c r="AJW45" s="2"/>
+      <c r="AKM45" s="2"/>
+      <c r="ALC45" s="2"/>
+      <c r="ALS45" s="2"/>
+      <c r="AMI45" s="2"/>
+      <c r="AMY45" s="2"/>
+      <c r="ANO45" s="2"/>
+      <c r="AOE45" s="2"/>
+      <c r="AOU45" s="2"/>
+      <c r="APK45" s="2"/>
+      <c r="AQA45" s="2"/>
+      <c r="AQQ45" s="2"/>
+      <c r="ARG45" s="2"/>
+      <c r="ARW45" s="2"/>
+      <c r="ASM45" s="2"/>
+      <c r="ATC45" s="2"/>
+      <c r="ATS45" s="2"/>
+      <c r="AUI45" s="2"/>
+      <c r="AUY45" s="2"/>
+      <c r="AVO45" s="2"/>
+      <c r="AWE45" s="2"/>
+      <c r="AWU45" s="2"/>
+      <c r="AXK45" s="2"/>
+      <c r="AYA45" s="2"/>
+      <c r="AYQ45" s="2"/>
+      <c r="AZG45" s="2"/>
+      <c r="AZW45" s="2"/>
+      <c r="BAM45" s="2"/>
+      <c r="BBC45" s="2"/>
+      <c r="BBS45" s="2"/>
+      <c r="BCI45" s="2"/>
+      <c r="BCY45" s="2"/>
+      <c r="BDO45" s="2"/>
+      <c r="BEE45" s="2"/>
+      <c r="BEU45" s="2"/>
+      <c r="BFK45" s="2"/>
+      <c r="BGA45" s="2"/>
+      <c r="BGQ45" s="2"/>
+      <c r="BHG45" s="2"/>
+      <c r="BHW45" s="2"/>
+      <c r="BIM45" s="2"/>
+      <c r="BJC45" s="2"/>
+      <c r="BJS45" s="2"/>
+      <c r="BKI45" s="2"/>
+      <c r="BKY45" s="2"/>
+      <c r="BLO45" s="2"/>
+      <c r="BME45" s="2"/>
+      <c r="BMU45" s="2"/>
+      <c r="BNK45" s="2"/>
+      <c r="BOA45" s="2"/>
+      <c r="BOQ45" s="2"/>
+      <c r="BPG45" s="2"/>
+      <c r="BPW45" s="2"/>
+      <c r="BQM45" s="2"/>
+      <c r="BRC45" s="2"/>
+      <c r="BRS45" s="2"/>
+      <c r="BSI45" s="2"/>
+      <c r="BSY45" s="2"/>
+      <c r="BTO45" s="2"/>
+      <c r="BUE45" s="2"/>
+      <c r="BUU45" s="2"/>
+      <c r="BVK45" s="2"/>
+      <c r="BWA45" s="2"/>
+      <c r="BWQ45" s="2"/>
+      <c r="BXG45" s="2"/>
+      <c r="BXW45" s="2"/>
+      <c r="BYM45" s="2"/>
+      <c r="BZC45" s="2"/>
+      <c r="BZS45" s="2"/>
+      <c r="CAI45" s="2"/>
+      <c r="CAY45" s="2"/>
+      <c r="CBO45" s="2"/>
+      <c r="CCE45" s="2"/>
+      <c r="CCU45" s="2"/>
+      <c r="CDK45" s="2"/>
+      <c r="CEA45" s="2"/>
+      <c r="CEQ45" s="2"/>
+      <c r="CFG45" s="2"/>
+      <c r="CFW45" s="2"/>
+      <c r="CGM45" s="2"/>
+      <c r="CHC45" s="2"/>
+      <c r="CHS45" s="2"/>
+      <c r="CII45" s="2"/>
+      <c r="CIY45" s="2"/>
+      <c r="CJO45" s="2"/>
+      <c r="CKE45" s="2"/>
+      <c r="CKU45" s="2"/>
+      <c r="CLK45" s="2"/>
+      <c r="CMA45" s="2"/>
+      <c r="CMQ45" s="2"/>
+      <c r="CNG45" s="2"/>
+      <c r="CNW45" s="2"/>
+      <c r="COM45" s="2"/>
+      <c r="CPC45" s="2"/>
+      <c r="CPS45" s="2"/>
+      <c r="CQI45" s="2"/>
+      <c r="CQY45" s="2"/>
+      <c r="CRO45" s="2"/>
+      <c r="CSE45" s="2"/>
+      <c r="CSU45" s="2"/>
+      <c r="CTK45" s="2"/>
+      <c r="CUA45" s="2"/>
+      <c r="CUQ45" s="2"/>
+      <c r="CVG45" s="2"/>
+      <c r="CVW45" s="2"/>
+      <c r="CWM45" s="2"/>
+      <c r="CXC45" s="2"/>
+      <c r="CXS45" s="2"/>
+      <c r="CYI45" s="2"/>
+      <c r="CYY45" s="2"/>
+      <c r="CZO45" s="2"/>
+      <c r="DAE45" s="2"/>
+      <c r="DAU45" s="2"/>
+      <c r="DBK45" s="2"/>
+      <c r="DCA45" s="2"/>
+      <c r="DCQ45" s="2"/>
+      <c r="DDG45" s="2"/>
+      <c r="DDW45" s="2"/>
+      <c r="DEM45" s="2"/>
+      <c r="DFC45" s="2"/>
+      <c r="DFS45" s="2"/>
+      <c r="DGI45" s="2"/>
+      <c r="DGY45" s="2"/>
+      <c r="DHO45" s="2"/>
+      <c r="DIE45" s="2"/>
+      <c r="DIU45" s="2"/>
+      <c r="DJK45" s="2"/>
+      <c r="DKA45" s="2"/>
+      <c r="DKQ45" s="2"/>
+      <c r="DLG45" s="2"/>
+      <c r="DLW45" s="2"/>
+      <c r="DMM45" s="2"/>
+      <c r="DNC45" s="2"/>
+      <c r="DNS45" s="2"/>
+      <c r="DOI45" s="2"/>
+      <c r="DOY45" s="2"/>
+      <c r="DPO45" s="2"/>
+      <c r="DQE45" s="2"/>
+      <c r="DQU45" s="2"/>
+      <c r="DRK45" s="2"/>
+      <c r="DSA45" s="2"/>
+      <c r="DSQ45" s="2"/>
+      <c r="DTG45" s="2"/>
+      <c r="DTW45" s="2"/>
+      <c r="DUM45" s="2"/>
+      <c r="DVC45" s="2"/>
+      <c r="DVS45" s="2"/>
+      <c r="DWI45" s="2"/>
+      <c r="DWY45" s="2"/>
+      <c r="DXO45" s="2"/>
+      <c r="DYE45" s="2"/>
+      <c r="DYU45" s="2"/>
+      <c r="DZK45" s="2"/>
+      <c r="EAA45" s="2"/>
+      <c r="EAQ45" s="2"/>
+      <c r="EBG45" s="2"/>
+      <c r="EBW45" s="2"/>
+      <c r="ECM45" s="2"/>
+      <c r="EDC45" s="2"/>
+      <c r="EDS45" s="2"/>
+      <c r="EEI45" s="2"/>
+      <c r="EEY45" s="2"/>
+      <c r="EFO45" s="2"/>
+      <c r="EGE45" s="2"/>
+      <c r="EGU45" s="2"/>
+      <c r="EHK45" s="2"/>
+      <c r="EIA45" s="2"/>
+      <c r="EIQ45" s="2"/>
+      <c r="EJG45" s="2"/>
+      <c r="EJW45" s="2"/>
+      <c r="EKM45" s="2"/>
+      <c r="ELC45" s="2"/>
+      <c r="ELS45" s="2"/>
+      <c r="EMI45" s="2"/>
+      <c r="EMY45" s="2"/>
+      <c r="ENO45" s="2"/>
+      <c r="EOE45" s="2"/>
+      <c r="EOU45" s="2"/>
+      <c r="EPK45" s="2"/>
+      <c r="EQA45" s="2"/>
+      <c r="EQQ45" s="2"/>
+      <c r="ERG45" s="2"/>
+      <c r="ERW45" s="2"/>
+      <c r="ESM45" s="2"/>
+      <c r="ETC45" s="2"/>
+      <c r="ETS45" s="2"/>
+      <c r="EUI45" s="2"/>
+      <c r="EUY45" s="2"/>
+      <c r="EVO45" s="2"/>
+      <c r="EWE45" s="2"/>
+      <c r="EWU45" s="2"/>
+      <c r="EXK45" s="2"/>
+      <c r="EYA45" s="2"/>
+      <c r="EYQ45" s="2"/>
+      <c r="EZG45" s="2"/>
+      <c r="EZW45" s="2"/>
+      <c r="FAM45" s="2"/>
+      <c r="FBC45" s="2"/>
+      <c r="FBS45" s="2"/>
+      <c r="FCI45" s="2"/>
+      <c r="FCY45" s="2"/>
+      <c r="FDO45" s="2"/>
+      <c r="FEE45" s="2"/>
+      <c r="FEU45" s="2"/>
+      <c r="FFK45" s="2"/>
+      <c r="FGA45" s="2"/>
+      <c r="FGQ45" s="2"/>
+      <c r="FHG45" s="2"/>
+      <c r="FHW45" s="2"/>
+      <c r="FIM45" s="2"/>
+      <c r="FJC45" s="2"/>
+      <c r="FJS45" s="2"/>
+      <c r="FKI45" s="2"/>
+      <c r="FKY45" s="2"/>
+      <c r="FLO45" s="2"/>
+      <c r="FME45" s="2"/>
+      <c r="FMU45" s="2"/>
+      <c r="FNK45" s="2"/>
+      <c r="FOA45" s="2"/>
+      <c r="FOQ45" s="2"/>
+      <c r="FPG45" s="2"/>
+      <c r="FPW45" s="2"/>
+      <c r="FQM45" s="2"/>
+      <c r="FRC45" s="2"/>
+      <c r="FRS45" s="2"/>
+      <c r="FSI45" s="2"/>
+      <c r="FSY45" s="2"/>
+      <c r="FTO45" s="2"/>
+      <c r="FUE45" s="2"/>
+      <c r="FUU45" s="2"/>
+      <c r="FVK45" s="2"/>
+      <c r="FWA45" s="2"/>
+      <c r="FWQ45" s="2"/>
+      <c r="FXG45" s="2"/>
+      <c r="FXW45" s="2"/>
+      <c r="FYM45" s="2"/>
+      <c r="FZC45" s="2"/>
+      <c r="FZS45" s="2"/>
+      <c r="GAI45" s="2"/>
+      <c r="GAY45" s="2"/>
+      <c r="GBO45" s="2"/>
+      <c r="GCE45" s="2"/>
+      <c r="GCU45" s="2"/>
+      <c r="GDK45" s="2"/>
+      <c r="GEA45" s="2"/>
+      <c r="GEQ45" s="2"/>
+      <c r="GFG45" s="2"/>
+      <c r="GFW45" s="2"/>
+      <c r="GGM45" s="2"/>
+      <c r="GHC45" s="2"/>
+      <c r="GHS45" s="2"/>
+      <c r="GII45" s="2"/>
+      <c r="GIY45" s="2"/>
+      <c r="GJO45" s="2"/>
+      <c r="GKE45" s="2"/>
+      <c r="GKU45" s="2"/>
+      <c r="GLK45" s="2"/>
+      <c r="GMA45" s="2"/>
+      <c r="GMQ45" s="2"/>
+      <c r="GNG45" s="2"/>
+      <c r="GNW45" s="2"/>
+      <c r="GOM45" s="2"/>
+      <c r="GPC45" s="2"/>
+      <c r="GPS45" s="2"/>
+      <c r="GQI45" s="2"/>
+      <c r="GQY45" s="2"/>
+      <c r="GRO45" s="2"/>
+      <c r="GSE45" s="2"/>
+      <c r="GSU45" s="2"/>
+      <c r="GTK45" s="2"/>
+      <c r="GUA45" s="2"/>
+      <c r="GUQ45" s="2"/>
+      <c r="GVG45" s="2"/>
+      <c r="GVW45" s="2"/>
+      <c r="GWM45" s="2"/>
+      <c r="GXC45" s="2"/>
+      <c r="GXS45" s="2"/>
+      <c r="GYI45" s="2"/>
+      <c r="GYY45" s="2"/>
+      <c r="GZO45" s="2"/>
+      <c r="HAE45" s="2"/>
+      <c r="HAU45" s="2"/>
+      <c r="HBK45" s="2"/>
+      <c r="HCA45" s="2"/>
+      <c r="HCQ45" s="2"/>
+      <c r="HDG45" s="2"/>
+      <c r="HDW45" s="2"/>
+      <c r="HEM45" s="2"/>
+      <c r="HFC45" s="2"/>
+      <c r="HFS45" s="2"/>
+      <c r="HGI45" s="2"/>
+      <c r="HGY45" s="2"/>
+      <c r="HHO45" s="2"/>
+      <c r="HIE45" s="2"/>
+      <c r="HIU45" s="2"/>
+      <c r="HJK45" s="2"/>
+      <c r="HKA45" s="2"/>
+      <c r="HKQ45" s="2"/>
+      <c r="HLG45" s="2"/>
+      <c r="HLW45" s="2"/>
+      <c r="HMM45" s="2"/>
+      <c r="HNC45" s="2"/>
+      <c r="HNS45" s="2"/>
+      <c r="HOI45" s="2"/>
+      <c r="HOY45" s="2"/>
+      <c r="HPO45" s="2"/>
+      <c r="HQE45" s="2"/>
+      <c r="HQU45" s="2"/>
+      <c r="HRK45" s="2"/>
+      <c r="HSA45" s="2"/>
+      <c r="HSQ45" s="2"/>
+      <c r="HTG45" s="2"/>
+      <c r="HTW45" s="2"/>
+      <c r="HUM45" s="2"/>
+      <c r="HVC45" s="2"/>
+      <c r="HVS45" s="2"/>
+      <c r="HWI45" s="2"/>
+      <c r="HWY45" s="2"/>
+      <c r="HXO45" s="2"/>
+      <c r="HYE45" s="2"/>
+      <c r="HYU45" s="2"/>
+      <c r="HZK45" s="2"/>
+      <c r="IAA45" s="2"/>
+      <c r="IAQ45" s="2"/>
+      <c r="IBG45" s="2"/>
+      <c r="IBW45" s="2"/>
+      <c r="ICM45" s="2"/>
+      <c r="IDC45" s="2"/>
+      <c r="IDS45" s="2"/>
+      <c r="IEI45" s="2"/>
+      <c r="IEY45" s="2"/>
+      <c r="IFO45" s="2"/>
+      <c r="IGE45" s="2"/>
+      <c r="IGU45" s="2"/>
+      <c r="IHK45" s="2"/>
+      <c r="IIA45" s="2"/>
+      <c r="IIQ45" s="2"/>
+      <c r="IJG45" s="2"/>
+      <c r="IJW45" s="2"/>
+      <c r="IKM45" s="2"/>
+      <c r="ILC45" s="2"/>
+      <c r="ILS45" s="2"/>
+      <c r="IMI45" s="2"/>
+      <c r="IMY45" s="2"/>
+      <c r="INO45" s="2"/>
+      <c r="IOE45" s="2"/>
+      <c r="IOU45" s="2"/>
+      <c r="IPK45" s="2"/>
+      <c r="IQA45" s="2"/>
+      <c r="IQQ45" s="2"/>
+      <c r="IRG45" s="2"/>
+      <c r="IRW45" s="2"/>
+      <c r="ISM45" s="2"/>
+      <c r="ITC45" s="2"/>
+      <c r="ITS45" s="2"/>
+      <c r="IUI45" s="2"/>
+      <c r="IUY45" s="2"/>
+      <c r="IVO45" s="2"/>
+      <c r="IWE45" s="2"/>
+      <c r="IWU45" s="2"/>
+      <c r="IXK45" s="2"/>
+      <c r="IYA45" s="2"/>
+      <c r="IYQ45" s="2"/>
+      <c r="IZG45" s="2"/>
+      <c r="IZW45" s="2"/>
+      <c r="JAM45" s="2"/>
+      <c r="JBC45" s="2"/>
+      <c r="JBS45" s="2"/>
+      <c r="JCI45" s="2"/>
+      <c r="JCY45" s="2"/>
+      <c r="JDO45" s="2"/>
+      <c r="JEE45" s="2"/>
+      <c r="JEU45" s="2"/>
+      <c r="JFK45" s="2"/>
+      <c r="JGA45" s="2"/>
+      <c r="JGQ45" s="2"/>
+      <c r="JHG45" s="2"/>
+      <c r="JHW45" s="2"/>
+      <c r="JIM45" s="2"/>
+      <c r="JJC45" s="2"/>
+      <c r="JJS45" s="2"/>
+      <c r="JKI45" s="2"/>
+      <c r="JKY45" s="2"/>
+      <c r="JLO45" s="2"/>
+      <c r="JME45" s="2"/>
+      <c r="JMU45" s="2"/>
+      <c r="JNK45" s="2"/>
+      <c r="JOA45" s="2"/>
+      <c r="JOQ45" s="2"/>
+      <c r="JPG45" s="2"/>
+      <c r="JPW45" s="2"/>
+      <c r="JQM45" s="2"/>
+      <c r="JRC45" s="2"/>
+      <c r="JRS45" s="2"/>
+      <c r="JSI45" s="2"/>
+      <c r="JSY45" s="2"/>
+      <c r="JTO45" s="2"/>
+      <c r="JUE45" s="2"/>
+      <c r="JUU45" s="2"/>
+      <c r="JVK45" s="2"/>
+      <c r="JWA45" s="2"/>
+      <c r="JWQ45" s="2"/>
+      <c r="JXG45" s="2"/>
+      <c r="JXW45" s="2"/>
+      <c r="JYM45" s="2"/>
+      <c r="JZC45" s="2"/>
+      <c r="JZS45" s="2"/>
+      <c r="KAI45" s="2"/>
+      <c r="KAY45" s="2"/>
+      <c r="KBO45" s="2"/>
+      <c r="KCE45" s="2"/>
+      <c r="KCU45" s="2"/>
+      <c r="KDK45" s="2"/>
+      <c r="KEA45" s="2"/>
+      <c r="KEQ45" s="2"/>
+      <c r="KFG45" s="2"/>
+      <c r="KFW45" s="2"/>
+      <c r="KGM45" s="2"/>
+      <c r="KHC45" s="2"/>
+      <c r="KHS45" s="2"/>
+      <c r="KII45" s="2"/>
+      <c r="KIY45" s="2"/>
+      <c r="KJO45" s="2"/>
+      <c r="KKE45" s="2"/>
+      <c r="KKU45" s="2"/>
+      <c r="KLK45" s="2"/>
+      <c r="KMA45" s="2"/>
+      <c r="KMQ45" s="2"/>
+      <c r="KNG45" s="2"/>
+      <c r="KNW45" s="2"/>
+      <c r="KOM45" s="2"/>
+      <c r="KPC45" s="2"/>
+      <c r="KPS45" s="2"/>
+      <c r="KQI45" s="2"/>
+      <c r="KQY45" s="2"/>
+      <c r="KRO45" s="2"/>
+      <c r="KSE45" s="2"/>
+      <c r="KSU45" s="2"/>
+      <c r="KTK45" s="2"/>
+      <c r="KUA45" s="2"/>
+      <c r="KUQ45" s="2"/>
+      <c r="KVG45" s="2"/>
+      <c r="KVW45" s="2"/>
+      <c r="KWM45" s="2"/>
+      <c r="KXC45" s="2"/>
+      <c r="KXS45" s="2"/>
+      <c r="KYI45" s="2"/>
+      <c r="KYY45" s="2"/>
+      <c r="KZO45" s="2"/>
+      <c r="LAE45" s="2"/>
+      <c r="LAU45" s="2"/>
+      <c r="LBK45" s="2"/>
+      <c r="LCA45" s="2"/>
+      <c r="LCQ45" s="2"/>
+      <c r="LDG45" s="2"/>
+      <c r="LDW45" s="2"/>
+      <c r="LEM45" s="2"/>
+      <c r="LFC45" s="2"/>
+      <c r="LFS45" s="2"/>
+      <c r="LGI45" s="2"/>
+      <c r="LGY45" s="2"/>
+      <c r="LHO45" s="2"/>
+      <c r="LIE45" s="2"/>
+      <c r="LIU45" s="2"/>
+      <c r="LJK45" s="2"/>
+      <c r="LKA45" s="2"/>
+      <c r="LKQ45" s="2"/>
+      <c r="LLG45" s="2"/>
+      <c r="LLW45" s="2"/>
+      <c r="LMM45" s="2"/>
+      <c r="LNC45" s="2"/>
+      <c r="LNS45" s="2"/>
+      <c r="LOI45" s="2"/>
+      <c r="LOY45" s="2"/>
+      <c r="LPO45" s="2"/>
+      <c r="LQE45" s="2"/>
+      <c r="LQU45" s="2"/>
+      <c r="LRK45" s="2"/>
+      <c r="LSA45" s="2"/>
+      <c r="LSQ45" s="2"/>
+      <c r="LTG45" s="2"/>
+      <c r="LTW45" s="2"/>
+      <c r="LUM45" s="2"/>
+      <c r="LVC45" s="2"/>
+      <c r="LVS45" s="2"/>
+      <c r="LWI45" s="2"/>
+      <c r="LWY45" s="2"/>
+      <c r="LXO45" s="2"/>
+      <c r="LYE45" s="2"/>
+      <c r="LYU45" s="2"/>
+      <c r="LZK45" s="2"/>
+      <c r="MAA45" s="2"/>
+      <c r="MAQ45" s="2"/>
+      <c r="MBG45" s="2"/>
+      <c r="MBW45" s="2"/>
+      <c r="MCM45" s="2"/>
+      <c r="MDC45" s="2"/>
+      <c r="MDS45" s="2"/>
+      <c r="MEI45" s="2"/>
+      <c r="MEY45" s="2"/>
+      <c r="MFO45" s="2"/>
+      <c r="MGE45" s="2"/>
+      <c r="MGU45" s="2"/>
+      <c r="MHK45" s="2"/>
+      <c r="MIA45" s="2"/>
+      <c r="MIQ45" s="2"/>
+      <c r="MJG45" s="2"/>
+      <c r="MJW45" s="2"/>
+      <c r="MKM45" s="2"/>
+      <c r="MLC45" s="2"/>
+      <c r="MLS45" s="2"/>
+      <c r="MMI45" s="2"/>
+      <c r="MMY45" s="2"/>
+      <c r="MNO45" s="2"/>
+      <c r="MOE45" s="2"/>
+      <c r="MOU45" s="2"/>
+      <c r="MPK45" s="2"/>
+      <c r="MQA45" s="2"/>
+      <c r="MQQ45" s="2"/>
+      <c r="MRG45" s="2"/>
+      <c r="MRW45" s="2"/>
+      <c r="MSM45" s="2"/>
+      <c r="MTC45" s="2"/>
+      <c r="MTS45" s="2"/>
+      <c r="MUI45" s="2"/>
+      <c r="MUY45" s="2"/>
+      <c r="MVO45" s="2"/>
+      <c r="MWE45" s="2"/>
+      <c r="MWU45" s="2"/>
+      <c r="MXK45" s="2"/>
+      <c r="MYA45" s="2"/>
+      <c r="MYQ45" s="2"/>
+      <c r="MZG45" s="2"/>
+      <c r="MZW45" s="2"/>
+      <c r="NAM45" s="2"/>
+      <c r="NBC45" s="2"/>
+      <c r="NBS45" s="2"/>
+      <c r="NCI45" s="2"/>
+      <c r="NCY45" s="2"/>
+      <c r="NDO45" s="2"/>
+      <c r="NEE45" s="2"/>
+      <c r="NEU45" s="2"/>
+      <c r="NFK45" s="2"/>
+      <c r="NGA45" s="2"/>
+      <c r="NGQ45" s="2"/>
+      <c r="NHG45" s="2"/>
+      <c r="NHW45" s="2"/>
+      <c r="NIM45" s="2"/>
+      <c r="NJC45" s="2"/>
+      <c r="NJS45" s="2"/>
+      <c r="NKI45" s="2"/>
+      <c r="NKY45" s="2"/>
+      <c r="NLO45" s="2"/>
+      <c r="NME45" s="2"/>
+      <c r="NMU45" s="2"/>
+      <c r="NNK45" s="2"/>
+      <c r="NOA45" s="2"/>
+      <c r="NOQ45" s="2"/>
+      <c r="NPG45" s="2"/>
+      <c r="NPW45" s="2"/>
+      <c r="NQM45" s="2"/>
+      <c r="NRC45" s="2"/>
+      <c r="NRS45" s="2"/>
+      <c r="NSI45" s="2"/>
+      <c r="NSY45" s="2"/>
+      <c r="NTO45" s="2"/>
+      <c r="NUE45" s="2"/>
+      <c r="NUU45" s="2"/>
+      <c r="NVK45" s="2"/>
+      <c r="NWA45" s="2"/>
+      <c r="NWQ45" s="2"/>
+      <c r="NXG45" s="2"/>
+      <c r="NXW45" s="2"/>
+      <c r="NYM45" s="2"/>
+      <c r="NZC45" s="2"/>
+      <c r="NZS45" s="2"/>
+      <c r="OAI45" s="2"/>
+      <c r="OAY45" s="2"/>
+      <c r="OBO45" s="2"/>
+      <c r="OCE45" s="2"/>
+      <c r="OCU45" s="2"/>
+      <c r="ODK45" s="2"/>
+      <c r="OEA45" s="2"/>
+      <c r="OEQ45" s="2"/>
+      <c r="OFG45" s="2"/>
+      <c r="OFW45" s="2"/>
+      <c r="OGM45" s="2"/>
+      <c r="OHC45" s="2"/>
+      <c r="OHS45" s="2"/>
+      <c r="OII45" s="2"/>
+      <c r="OIY45" s="2"/>
+      <c r="OJO45" s="2"/>
+      <c r="OKE45" s="2"/>
+      <c r="OKU45" s="2"/>
+      <c r="OLK45" s="2"/>
+      <c r="OMA45" s="2"/>
+      <c r="OMQ45" s="2"/>
+      <c r="ONG45" s="2"/>
+      <c r="ONW45" s="2"/>
+      <c r="OOM45" s="2"/>
+      <c r="OPC45" s="2"/>
+      <c r="OPS45" s="2"/>
+      <c r="OQI45" s="2"/>
+      <c r="OQY45" s="2"/>
+      <c r="ORO45" s="2"/>
+      <c r="OSE45" s="2"/>
+      <c r="OSU45" s="2"/>
+      <c r="OTK45" s="2"/>
+      <c r="OUA45" s="2"/>
+      <c r="OUQ45" s="2"/>
+      <c r="OVG45" s="2"/>
+      <c r="OVW45" s="2"/>
+      <c r="OWM45" s="2"/>
+      <c r="OXC45" s="2"/>
+      <c r="OXS45" s="2"/>
+      <c r="OYI45" s="2"/>
+      <c r="OYY45" s="2"/>
+      <c r="OZO45" s="2"/>
+      <c r="PAE45" s="2"/>
+      <c r="PAU45" s="2"/>
+      <c r="PBK45" s="2"/>
+      <c r="PCA45" s="2"/>
+      <c r="PCQ45" s="2"/>
+      <c r="PDG45" s="2"/>
+      <c r="PDW45" s="2"/>
+      <c r="PEM45" s="2"/>
+      <c r="PFC45" s="2"/>
+      <c r="PFS45" s="2"/>
+      <c r="PGI45" s="2"/>
+      <c r="PGY45" s="2"/>
+      <c r="PHO45" s="2"/>
+      <c r="PIE45" s="2"/>
+      <c r="PIU45" s="2"/>
+      <c r="PJK45" s="2"/>
+      <c r="PKA45" s="2"/>
+      <c r="PKQ45" s="2"/>
+      <c r="PLG45" s="2"/>
+      <c r="PLW45" s="2"/>
+      <c r="PMM45" s="2"/>
+      <c r="PNC45" s="2"/>
+      <c r="PNS45" s="2"/>
+      <c r="POI45" s="2"/>
+      <c r="POY45" s="2"/>
+      <c r="PPO45" s="2"/>
+      <c r="PQE45" s="2"/>
+      <c r="PQU45" s="2"/>
+      <c r="PRK45" s="2"/>
+      <c r="PSA45" s="2"/>
+      <c r="PSQ45" s="2"/>
+      <c r="PTG45" s="2"/>
+      <c r="PTW45" s="2"/>
+      <c r="PUM45" s="2"/>
+      <c r="PVC45" s="2"/>
+      <c r="PVS45" s="2"/>
+      <c r="PWI45" s="2"/>
+      <c r="PWY45" s="2"/>
+      <c r="PXO45" s="2"/>
+      <c r="PYE45" s="2"/>
+      <c r="PYU45" s="2"/>
+      <c r="PZK45" s="2"/>
+      <c r="QAA45" s="2"/>
+      <c r="QAQ45" s="2"/>
+      <c r="QBG45" s="2"/>
+      <c r="QBW45" s="2"/>
+      <c r="QCM45" s="2"/>
+      <c r="QDC45" s="2"/>
+      <c r="QDS45" s="2"/>
+      <c r="QEI45" s="2"/>
+      <c r="QEY45" s="2"/>
+      <c r="QFO45" s="2"/>
+      <c r="QGE45" s="2"/>
+      <c r="QGU45" s="2"/>
+      <c r="QHK45" s="2"/>
+      <c r="QIA45" s="2"/>
+      <c r="QIQ45" s="2"/>
+      <c r="QJG45" s="2"/>
+      <c r="QJW45" s="2"/>
+      <c r="QKM45" s="2"/>
+      <c r="QLC45" s="2"/>
+      <c r="QLS45" s="2"/>
+      <c r="QMI45" s="2"/>
+      <c r="QMY45" s="2"/>
+      <c r="QNO45" s="2"/>
+      <c r="QOE45" s="2"/>
+      <c r="QOU45" s="2"/>
+      <c r="QPK45" s="2"/>
+      <c r="QQA45" s="2"/>
+      <c r="QQQ45" s="2"/>
+      <c r="QRG45" s="2"/>
+      <c r="QRW45" s="2"/>
+      <c r="QSM45" s="2"/>
+      <c r="QTC45" s="2"/>
+      <c r="QTS45" s="2"/>
+      <c r="QUI45" s="2"/>
+      <c r="QUY45" s="2"/>
+      <c r="QVO45" s="2"/>
+      <c r="QWE45" s="2"/>
+      <c r="QWU45" s="2"/>
+      <c r="QXK45" s="2"/>
+      <c r="QYA45" s="2"/>
+      <c r="QYQ45" s="2"/>
+      <c r="QZG45" s="2"/>
+      <c r="QZW45" s="2"/>
+      <c r="RAM45" s="2"/>
+      <c r="RBC45" s="2"/>
+      <c r="RBS45" s="2"/>
+      <c r="RCI45" s="2"/>
+      <c r="RCY45" s="2"/>
+      <c r="RDO45" s="2"/>
+      <c r="REE45" s="2"/>
+      <c r="REU45" s="2"/>
+      <c r="RFK45" s="2"/>
+      <c r="RGA45" s="2"/>
+      <c r="RGQ45" s="2"/>
+      <c r="RHG45" s="2"/>
+      <c r="RHW45" s="2"/>
+      <c r="RIM45" s="2"/>
+      <c r="RJC45" s="2"/>
+      <c r="RJS45" s="2"/>
+      <c r="RKI45" s="2"/>
+      <c r="RKY45" s="2"/>
+      <c r="RLO45" s="2"/>
+      <c r="RME45" s="2"/>
+      <c r="RMU45" s="2"/>
+      <c r="RNK45" s="2"/>
+      <c r="ROA45" s="2"/>
+      <c r="ROQ45" s="2"/>
+      <c r="RPG45" s="2"/>
+      <c r="RPW45" s="2"/>
+      <c r="RQM45" s="2"/>
+      <c r="RRC45" s="2"/>
+      <c r="RRS45" s="2"/>
+      <c r="RSI45" s="2"/>
+      <c r="RSY45" s="2"/>
+      <c r="RTO45" s="2"/>
+      <c r="RUE45" s="2"/>
+      <c r="RUU45" s="2"/>
+      <c r="RVK45" s="2"/>
+      <c r="RWA45" s="2"/>
+      <c r="RWQ45" s="2"/>
+      <c r="RXG45" s="2"/>
+      <c r="RXW45" s="2"/>
+      <c r="RYM45" s="2"/>
+      <c r="RZC45" s="2"/>
+      <c r="RZS45" s="2"/>
+      <c r="SAI45" s="2"/>
+      <c r="SAY45" s="2"/>
+      <c r="SBO45" s="2"/>
+      <c r="SCE45" s="2"/>
+      <c r="SCU45" s="2"/>
+      <c r="SDK45" s="2"/>
+      <c r="SEA45" s="2"/>
+      <c r="SEQ45" s="2"/>
+      <c r="SFG45" s="2"/>
+      <c r="SFW45" s="2"/>
+      <c r="SGM45" s="2"/>
+      <c r="SHC45" s="2"/>
+      <c r="SHS45" s="2"/>
+      <c r="SII45" s="2"/>
+      <c r="SIY45" s="2"/>
+      <c r="SJO45" s="2"/>
+      <c r="SKE45" s="2"/>
+      <c r="SKU45" s="2"/>
+      <c r="SLK45" s="2"/>
+      <c r="SMA45" s="2"/>
+      <c r="SMQ45" s="2"/>
+      <c r="SNG45" s="2"/>
+      <c r="SNW45" s="2"/>
+      <c r="SOM45" s="2"/>
+      <c r="SPC45" s="2"/>
+      <c r="SPS45" s="2"/>
+      <c r="SQI45" s="2"/>
+      <c r="SQY45" s="2"/>
+      <c r="SRO45" s="2"/>
+      <c r="SSE45" s="2"/>
+      <c r="SSU45" s="2"/>
+      <c r="STK45" s="2"/>
+      <c r="SUA45" s="2"/>
+      <c r="SUQ45" s="2"/>
+      <c r="SVG45" s="2"/>
+      <c r="SVW45" s="2"/>
+      <c r="SWM45" s="2"/>
+      <c r="SXC45" s="2"/>
+      <c r="SXS45" s="2"/>
+      <c r="SYI45" s="2"/>
+      <c r="SYY45" s="2"/>
+      <c r="SZO45" s="2"/>
+      <c r="TAE45" s="2"/>
+      <c r="TAU45" s="2"/>
+      <c r="TBK45" s="2"/>
+      <c r="TCA45" s="2"/>
+      <c r="TCQ45" s="2"/>
+      <c r="TDG45" s="2"/>
+      <c r="TDW45" s="2"/>
+      <c r="TEM45" s="2"/>
+      <c r="TFC45" s="2"/>
+      <c r="TFS45" s="2"/>
+      <c r="TGI45" s="2"/>
+      <c r="TGY45" s="2"/>
+      <c r="THO45" s="2"/>
+      <c r="TIE45" s="2"/>
+      <c r="TIU45" s="2"/>
+      <c r="TJK45" s="2"/>
+      <c r="TKA45" s="2"/>
+      <c r="TKQ45" s="2"/>
+      <c r="TLG45" s="2"/>
+      <c r="TLW45" s="2"/>
+      <c r="TMM45" s="2"/>
+      <c r="TNC45" s="2"/>
+      <c r="TNS45" s="2"/>
+      <c r="TOI45" s="2"/>
+      <c r="TOY45" s="2"/>
+      <c r="TPO45" s="2"/>
+      <c r="TQE45" s="2"/>
+      <c r="TQU45" s="2"/>
+      <c r="TRK45" s="2"/>
+      <c r="TSA45" s="2"/>
+      <c r="TSQ45" s="2"/>
+      <c r="TTG45" s="2"/>
+      <c r="TTW45" s="2"/>
+      <c r="TUM45" s="2"/>
+      <c r="TVC45" s="2"/>
+      <c r="TVS45" s="2"/>
+      <c r="TWI45" s="2"/>
+      <c r="TWY45" s="2"/>
+      <c r="TXO45" s="2"/>
+      <c r="TYE45" s="2"/>
+      <c r="TYU45" s="2"/>
+      <c r="TZK45" s="2"/>
+      <c r="UAA45" s="2"/>
+      <c r="UAQ45" s="2"/>
+      <c r="UBG45" s="2"/>
+      <c r="UBW45" s="2"/>
+      <c r="UCM45" s="2"/>
+      <c r="UDC45" s="2"/>
+      <c r="UDS45" s="2"/>
+      <c r="UEI45" s="2"/>
+      <c r="UEY45" s="2"/>
+      <c r="UFO45" s="2"/>
+      <c r="UGE45" s="2"/>
+      <c r="UGU45" s="2"/>
+      <c r="UHK45" s="2"/>
+      <c r="UIA45" s="2"/>
+      <c r="UIQ45" s="2"/>
+      <c r="UJG45" s="2"/>
+      <c r="UJW45" s="2"/>
+      <c r="UKM45" s="2"/>
+      <c r="ULC45" s="2"/>
+      <c r="ULS45" s="2"/>
+      <c r="UMI45" s="2"/>
+      <c r="UMY45" s="2"/>
+      <c r="UNO45" s="2"/>
+      <c r="UOE45" s="2"/>
+      <c r="UOU45" s="2"/>
+      <c r="UPK45" s="2"/>
+      <c r="UQA45" s="2"/>
+      <c r="UQQ45" s="2"/>
+      <c r="URG45" s="2"/>
+      <c r="URW45" s="2"/>
+      <c r="USM45" s="2"/>
+      <c r="UTC45" s="2"/>
+      <c r="UTS45" s="2"/>
+      <c r="UUI45" s="2"/>
+      <c r="UUY45" s="2"/>
+      <c r="UVO45" s="2"/>
+      <c r="UWE45" s="2"/>
+      <c r="UWU45" s="2"/>
+      <c r="UXK45" s="2"/>
+      <c r="UYA45" s="2"/>
+      <c r="UYQ45" s="2"/>
+      <c r="UZG45" s="2"/>
+      <c r="UZW45" s="2"/>
+      <c r="VAM45" s="2"/>
+      <c r="VBC45" s="2"/>
+      <c r="VBS45" s="2"/>
+      <c r="VCI45" s="2"/>
+      <c r="VCY45" s="2"/>
+      <c r="VDO45" s="2"/>
+      <c r="VEE45" s="2"/>
+      <c r="VEU45" s="2"/>
+      <c r="VFK45" s="2"/>
+      <c r="VGA45" s="2"/>
+      <c r="VGQ45" s="2"/>
+      <c r="VHG45" s="2"/>
+      <c r="VHW45" s="2"/>
+      <c r="VIM45" s="2"/>
+      <c r="VJC45" s="2"/>
+      <c r="VJS45" s="2"/>
+      <c r="VKI45" s="2"/>
+      <c r="VKY45" s="2"/>
+      <c r="VLO45" s="2"/>
+      <c r="VME45" s="2"/>
+      <c r="VMU45" s="2"/>
+      <c r="VNK45" s="2"/>
+      <c r="VOA45" s="2"/>
+      <c r="VOQ45" s="2"/>
+      <c r="VPG45" s="2"/>
+      <c r="VPW45" s="2"/>
+      <c r="VQM45" s="2"/>
+      <c r="VRC45" s="2"/>
+      <c r="VRS45" s="2"/>
+      <c r="VSI45" s="2"/>
+      <c r="VSY45" s="2"/>
+      <c r="VTO45" s="2"/>
+      <c r="VUE45" s="2"/>
+      <c r="VUU45" s="2"/>
+      <c r="VVK45" s="2"/>
+      <c r="VWA45" s="2"/>
+      <c r="VWQ45" s="2"/>
+      <c r="VXG45" s="2"/>
+      <c r="VXW45" s="2"/>
+      <c r="VYM45" s="2"/>
+      <c r="VZC45" s="2"/>
+      <c r="VZS45" s="2"/>
+      <c r="WAI45" s="2"/>
+      <c r="WAY45" s="2"/>
+      <c r="WBO45" s="2"/>
+      <c r="WCE45" s="2"/>
+      <c r="WCU45" s="2"/>
+      <c r="WDK45" s="2"/>
+      <c r="WEA45" s="2"/>
+      <c r="WEQ45" s="2"/>
+      <c r="WFG45" s="2"/>
+      <c r="WFW45" s="2"/>
+      <c r="WGM45" s="2"/>
+      <c r="WHC45" s="2"/>
+      <c r="WHS45" s="2"/>
+      <c r="WII45" s="2"/>
+      <c r="WIY45" s="2"/>
+      <c r="WJO45" s="2"/>
+      <c r="WKE45" s="2"/>
+      <c r="WKU45" s="2"/>
+      <c r="WLK45" s="2"/>
+      <c r="WMA45" s="2"/>
+      <c r="WMQ45" s="2"/>
+      <c r="WNG45" s="2"/>
+      <c r="WNW45" s="2"/>
+      <c r="WOM45" s="2"/>
+      <c r="WPC45" s="2"/>
+      <c r="WPS45" s="2"/>
+      <c r="WQI45" s="2"/>
+      <c r="WQY45" s="2"/>
+      <c r="WRO45" s="2"/>
+      <c r="WSE45" s="2"/>
+      <c r="WSU45" s="2"/>
+      <c r="WTK45" s="2"/>
+      <c r="WUA45" s="2"/>
+      <c r="WUQ45" s="2"/>
+      <c r="WVG45" s="2"/>
+      <c r="WVW45" s="2"/>
+      <c r="WWM45" s="2"/>
+      <c r="WXC45" s="2"/>
+      <c r="WXS45" s="2"/>
+      <c r="WYI45" s="2"/>
+      <c r="WYY45" s="2"/>
+      <c r="WZO45" s="2"/>
+      <c r="XAE45" s="2"/>
+      <c r="XAU45" s="2"/>
+      <c r="XBK45" s="2"/>
+      <c r="XCA45" s="2"/>
+      <c r="XCQ45" s="2"/>
+      <c r="XDG45" s="2"/>
+      <c r="XDW45" s="2"/>
+      <c r="XEM45" s="2"/>
+      <c r="XFC45" s="2"/>
     </row>
     <row r="46" spans="1:1023 1039:2047 2063:3071 3087:4095 4111:5119 5135:6143 6159:7167 7183:8191 8207:9215 9231:10239 10255:11263 11279:12287 12303:13311 13327:14335 14351:15359 15375:16383" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C46">
-        <v>7.6410000000000006E-2</v>
+        <v>2.299E-2</v>
       </c>
       <c r="D46">
-        <v>78885</v>
-      </c>
-      <c r="F46">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>25</v>
@@ -5901,16 +5956,13 @@
       <c r="I46" t="s">
         <v>25</v>
       </c>
-      <c r="J46" t="s">
-        <v>25</v>
-      </c>
       <c r="K46" t="s">
         <v>25</v>
       </c>
       <c r="L46" t="s">
         <v>25</v>
       </c>
-      <c r="N46" t="s">
+      <c r="P46" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5919,16 +5971,16 @@
         <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C48">
-        <v>8.6410000000000001E-2</v>
+        <v>7.6410000000000006E-2</v>
       </c>
       <c r="D48">
-        <v>295942</v>
+        <v>78885</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G48" t="s">
         <v>25</v>
@@ -5948,11 +6000,8 @@
       <c r="L48" t="s">
         <v>25</v>
       </c>
-      <c r="M48" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0.1</v>
+      <c r="N48" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +6009,13 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C50">
-        <v>0.17186999999999999</v>
+        <v>8.6410000000000001E-2</v>
       </c>
       <c r="D50">
-        <v>598943</v>
+        <v>295942</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5990,9 +6039,6 @@
         <v>25</v>
       </c>
       <c r="M50" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" t="s">
         <v>25</v>
       </c>
       <c r="O50" s="2">
@@ -6004,13 +6050,13 @@
         <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C52">
-        <v>0.17843000000000001</v>
+        <v>0.17186999999999999</v>
       </c>
       <c r="D52">
-        <v>535669</v>
+        <v>598943</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -6040,57 +6086,7 @@
         <v>25</v>
       </c>
       <c r="O52" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>66</v>
-      </c>
-      <c r="B53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53">
-        <v>0.17616000000000001</v>
-      </c>
-      <c r="D53">
-        <v>516237</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" t="s">
-        <v>25</v>
-      </c>
-      <c r="J53" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" t="s">
-        <v>25</v>
-      </c>
-      <c r="M53" t="s">
-        <v>25</v>
-      </c>
-      <c r="N53" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>37</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6094,13 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54">
-        <v>0.22176999999999999</v>
+        <v>0.17843000000000001</v>
       </c>
       <c r="D54">
-        <v>635042</v>
+        <v>535669</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -6137,7 +6133,54 @@
         <v>0.2</v>
       </c>
       <c r="Q54" t="s">
-        <v>141</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55">
+        <v>0.17616000000000001</v>
+      </c>
+      <c r="D55">
+        <v>516237</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6188,13 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C56">
-        <v>0.82628000000000001</v>
+        <v>0.22176999999999999</v>
       </c>
       <c r="D56">
-        <v>355844</v>
+        <v>635042</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -6181,10 +6224,10 @@
         <v>25</v>
       </c>
       <c r="O56" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6235,13 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C57">
-        <v>0.74866999999999995</v>
+        <v>0.18965000000000001</v>
       </c>
       <c r="D57">
-        <v>340897</v>
+        <v>673684</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -6228,13 +6271,257 @@
         <v>25</v>
       </c>
       <c r="O57" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59">
+        <v>0.15304000000000001</v>
+      </c>
+      <c r="D59">
+        <v>328621</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61">
+        <v>0.18310999999999999</v>
+      </c>
+      <c r="D61">
+        <v>902281</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63">
+        <v>0.82628000000000001</v>
+      </c>
+      <c r="D63">
+        <v>355844</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" t="s">
+        <v>25</v>
+      </c>
+      <c r="O63" s="2">
         <v>1</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="Q63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
         <v>141</v>
       </c>
+      <c r="C64">
+        <v>0.74866999999999995</v>
+      </c>
+      <c r="D64">
+        <v>340897</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65">
+        <v>0.58496000000000004</v>
+      </c>
+      <c r="D65">
+        <v>365189</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Q58">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
